--- a/data/Makespans20.xlsx
+++ b/data/Makespans20.xlsx
@@ -1,33 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/livion/Documents/GitHub/Cloud-Workflow-Scheduling-base-on-Deep-Reinforcement-Learning/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E29CE30-3328-0C43-B0E3-708B8DF7D874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9380" yWindow="7220" windowWidth="25560" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -70,26 +52,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,28 +82,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -175,7 +136,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,27 +168,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,24 +202,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,17 +377,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" zoomScale="141" workbookViewId="0">
-      <selection activeCell="G410" sqref="G410"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -484,7 +406,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>151</v>
+        <v>160.3</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -498,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>175</v>
+        <v>153.1</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -512,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>149</v>
+        <v>142.7</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -526,7 +448,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>139</v>
+        <v>140.9</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -540,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>178</v>
+        <v>137.1</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -554,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>180</v>
+        <v>154.6</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -568,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>137</v>
+        <v>144.9</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -582,7 +504,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>176</v>
+        <v>147.5</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -596,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>146</v>
+        <v>146.2</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -610,7 +532,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>145</v>
+        <v>137.6</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -624,7 +546,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>174</v>
+        <v>158.2</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -638,7 +560,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>145</v>
+        <v>150.2</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -652,7 +574,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>137</v>
+        <v>143.5</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -666,7 +588,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -680,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>173</v>
+        <v>138.6</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -694,7 +616,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>182</v>
+        <v>158.1</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -708,7 +630,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -722,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>138</v>
+        <v>147.2</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -736,7 +658,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>178</v>
+        <v>147.3</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -750,7 +672,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>159</v>
+        <v>136.1</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -764,7 +686,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>158</v>
+        <v>162.9</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -792,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>131</v>
+        <v>144.3</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -806,7 +728,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>114</v>
+        <v>141.8</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -820,7 +742,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>131</v>
+        <v>131.5</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -834,7 +756,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>142</v>
+        <v>159.4</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -848,7 +770,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>115</v>
+        <v>142.7</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -862,7 +784,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>106</v>
+        <v>147.6</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -876,7 +798,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>173</v>
+        <v>145.7</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -890,7 +812,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>114</v>
+        <v>138.6</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -904,7 +826,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>147</v>
+        <v>157.6</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -918,7 +840,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>148</v>
+        <v>150.7</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -932,7 +854,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>138</v>
+        <v>143.4</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -946,7 +868,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>154</v>
+        <v>144.6</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -960,7 +882,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>186</v>
+        <v>136.4</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -974,7 +896,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>119</v>
+        <v>161.1</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -988,7 +910,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>128</v>
+        <v>143.8</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -1002,7 +924,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -1016,7 +938,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>142</v>
+        <v>148.5</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -1030,7 +952,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>149</v>
+        <v>138.3</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1044,7 +966,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -1058,7 +980,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>129</v>
+        <v>147.3</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -1072,7 +994,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>111</v>
+        <v>146.8</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
@@ -1086,7 +1008,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>159</v>
+        <v>145.5</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -1100,7 +1022,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>158</v>
+        <v>135.3</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -1114,7 +1036,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>173</v>
+        <v>160.7</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
@@ -1128,7 +1050,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>189</v>
+        <v>143.2</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -1142,7 +1064,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>155</v>
+        <v>147.6</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -1156,7 +1078,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>141</v>
+        <v>147.1</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -1170,7 +1092,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>123</v>
+        <v>139.8</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -1184,7 +1106,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>160</v>
+        <v>159.2</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -1198,7 +1120,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>161</v>
+        <v>152.7</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
@@ -1212,7 +1134,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
@@ -1226,7 +1148,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>121</v>
+        <v>143.5</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
@@ -1240,7 +1162,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>152</v>
+        <v>137.5</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
@@ -1254,7 +1176,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>126</v>
+        <v>158.9</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
@@ -1268,7 +1190,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>170</v>
+        <v>142.6</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
@@ -1282,7 +1204,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>163</v>
+        <v>148.6</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
@@ -1296,7 +1218,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>159</v>
+        <v>146.6</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -1310,7 +1232,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>172</v>
+        <v>140.7</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
@@ -1324,7 +1246,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>160</v>
+        <v>159.6</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -1338,7 +1260,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>185</v>
+        <v>153.5</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -1352,7 +1274,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>138</v>
+        <v>146.1</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
@@ -1366,7 +1288,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>199</v>
+        <v>144.2</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
@@ -1380,7 +1302,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>180</v>
+        <v>137.6</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -1394,7 +1316,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>174</v>
+        <v>162.9</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
@@ -1408,7 +1330,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>179</v>
+        <v>142.1</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
@@ -1422,7 +1344,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>200</v>
+        <v>147.2</v>
       </c>
       <c r="C69" t="s">
         <v>4</v>
@@ -1436,7 +1358,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>134</v>
+        <v>145.9</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
@@ -1450,7 +1372,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>166</v>
+        <v>141.1</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
@@ -1464,7 +1386,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>161</v>
+        <v>159.7</v>
       </c>
       <c r="C72" t="s">
         <v>4</v>
@@ -1478,7 +1400,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>154</v>
+        <v>149.3</v>
       </c>
       <c r="C73" t="s">
         <v>4</v>
@@ -1492,7 +1414,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>144</v>
+        <v>143.5</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
@@ -1506,7 +1428,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>168</v>
+        <v>143.7</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
@@ -1520,7 +1442,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>157</v>
+        <v>135.8</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
@@ -1534,7 +1456,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
@@ -1548,7 +1470,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>154</v>
+        <v>142.2</v>
       </c>
       <c r="C78" t="s">
         <v>4</v>
@@ -1562,7 +1484,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>161</v>
+        <v>145.2</v>
       </c>
       <c r="C79" t="s">
         <v>4</v>
@@ -1576,7 +1498,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>167</v>
+        <v>148.1</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -1590,7 +1512,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>157</v>
+        <v>136.3</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
@@ -1604,7 +1526,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -1618,7 +1540,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C83" t="s">
         <v>4</v>
@@ -1632,7 +1554,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>151</v>
+        <v>146.5</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
@@ -1646,7 +1568,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>141</v>
+        <v>139.9</v>
       </c>
       <c r="C85" t="s">
         <v>4</v>
@@ -1660,7 +1582,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>201</v>
+        <v>135.9</v>
       </c>
       <c r="C86" t="s">
         <v>4</v>
@@ -1674,7 +1596,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>141</v>
+        <v>160.8</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
@@ -1688,7 +1610,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>121</v>
+        <v>141.9</v>
       </c>
       <c r="C88" t="s">
         <v>4</v>
@@ -1702,7 +1624,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>140</v>
+        <v>146.1</v>
       </c>
       <c r="C89" t="s">
         <v>4</v>
@@ -1716,7 +1638,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>126</v>
+        <v>148.9</v>
       </c>
       <c r="C90" t="s">
         <v>4</v>
@@ -1730,7 +1652,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>172</v>
+        <v>140.7</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
@@ -1744,7 +1666,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>149</v>
+        <v>157.3</v>
       </c>
       <c r="C92" t="s">
         <v>4</v>
@@ -1758,7 +1680,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>164</v>
+        <v>151.4</v>
       </c>
       <c r="C93" t="s">
         <v>4</v>
@@ -1772,7 +1694,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>179</v>
+        <v>144.3</v>
       </c>
       <c r="C94" t="s">
         <v>4</v>
@@ -1786,7 +1708,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>122</v>
+        <v>141.2</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
@@ -1800,7 +1722,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>154</v>
+        <v>134.6</v>
       </c>
       <c r="C96" t="s">
         <v>4</v>
@@ -1814,7 +1736,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>185</v>
+        <v>165.1</v>
       </c>
       <c r="C97" t="s">
         <v>4</v>
@@ -1828,7 +1750,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>165</v>
+        <v>142.6</v>
       </c>
       <c r="C98" t="s">
         <v>4</v>
@@ -1842,7 +1764,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>155</v>
+        <v>148.6</v>
       </c>
       <c r="C99" t="s">
         <v>4</v>
@@ -1856,7 +1778,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -1870,7 +1792,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>146</v>
+        <v>138.2</v>
       </c>
       <c r="C101" t="s">
         <v>4</v>
@@ -1884,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="B102">
-        <v>148</v>
+        <v>150.3</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -1898,7 +1820,7 @@
         <v>2</v>
       </c>
       <c r="B103">
-        <v>150</v>
+        <v>142.6</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -1912,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="B104">
-        <v>151</v>
+        <v>142.1</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -1926,7 +1848,7 @@
         <v>4</v>
       </c>
       <c r="B105">
-        <v>142</v>
+        <v>138.8</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -1940,7 +1862,7 @@
         <v>5</v>
       </c>
       <c r="B106">
-        <v>183</v>
+        <v>135.2</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -1954,7 +1876,7 @@
         <v>6</v>
       </c>
       <c r="B107">
-        <v>186</v>
+        <v>155.2</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -1968,7 +1890,7 @@
         <v>7</v>
       </c>
       <c r="B108">
-        <v>132</v>
+        <v>141.2</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -1982,7 +1904,7 @@
         <v>8</v>
       </c>
       <c r="B109">
-        <v>169</v>
+        <v>146.4</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -1996,7 +1918,7 @@
         <v>9</v>
       </c>
       <c r="B110">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2010,7 +1932,7 @@
         <v>10</v>
       </c>
       <c r="B111">
-        <v>140</v>
+        <v>135.8</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2024,7 +1946,7 @@
         <v>11</v>
       </c>
       <c r="B112">
-        <v>160</v>
+        <v>150.3</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2038,7 +1960,7 @@
         <v>12</v>
       </c>
       <c r="B113">
-        <v>128</v>
+        <v>142.6</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2052,7 +1974,7 @@
         <v>13</v>
       </c>
       <c r="B114">
-        <v>137</v>
+        <v>142.1</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2066,7 +1988,7 @@
         <v>14</v>
       </c>
       <c r="B115">
-        <v>135</v>
+        <v>138.8</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2080,7 +2002,7 @@
         <v>15</v>
       </c>
       <c r="B116">
-        <v>178</v>
+        <v>135.2</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2094,7 +2016,7 @@
         <v>16</v>
       </c>
       <c r="B117">
-        <v>165</v>
+        <v>155.2</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2108,7 +2030,7 @@
         <v>17</v>
       </c>
       <c r="B118">
-        <v>131</v>
+        <v>141.2</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2122,7 +2044,7 @@
         <v>18</v>
       </c>
       <c r="B119">
-        <v>138</v>
+        <v>146.4</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2136,7 +2058,7 @@
         <v>19</v>
       </c>
       <c r="B120">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2150,7 +2072,7 @@
         <v>20</v>
       </c>
       <c r="B121">
-        <v>147</v>
+        <v>135.8</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2164,7 +2086,7 @@
         <v>21</v>
       </c>
       <c r="B122">
-        <v>159</v>
+        <v>150.3</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2178,7 +2100,7 @@
         <v>22</v>
       </c>
       <c r="B123">
-        <v>140</v>
+        <v>142.6</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2192,7 +2114,7 @@
         <v>23</v>
       </c>
       <c r="B124">
-        <v>119</v>
+        <v>142.1</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2206,7 +2128,7 @@
         <v>24</v>
       </c>
       <c r="B125">
-        <v>105</v>
+        <v>138.8</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2220,7 +2142,7 @@
         <v>25</v>
       </c>
       <c r="B126">
-        <v>139</v>
+        <v>135.2</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2234,7 +2156,7 @@
         <v>26</v>
       </c>
       <c r="B127">
-        <v>136</v>
+        <v>155.2</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2248,7 +2170,7 @@
         <v>27</v>
       </c>
       <c r="B128">
-        <v>121</v>
+        <v>141.2</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2262,7 +2184,7 @@
         <v>28</v>
       </c>
       <c r="B129">
-        <v>108</v>
+        <v>146.4</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2276,7 +2198,7 @@
         <v>29</v>
       </c>
       <c r="B130">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2290,7 +2212,7 @@
         <v>30</v>
       </c>
       <c r="B131">
-        <v>116</v>
+        <v>135.8</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2304,7 +2226,7 @@
         <v>31</v>
       </c>
       <c r="B132">
-        <v>133</v>
+        <v>150.3</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2318,7 +2240,7 @@
         <v>32</v>
       </c>
       <c r="B133">
-        <v>144</v>
+        <v>142.6</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2332,7 +2254,7 @@
         <v>33</v>
       </c>
       <c r="B134">
-        <v>150</v>
+        <v>142.1</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2346,7 +2268,7 @@
         <v>34</v>
       </c>
       <c r="B135">
-        <v>171</v>
+        <v>138.8</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2360,7 +2282,7 @@
         <v>35</v>
       </c>
       <c r="B136">
-        <v>167</v>
+        <v>135.2</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2374,7 +2296,7 @@
         <v>36</v>
       </c>
       <c r="B137">
-        <v>109</v>
+        <v>155.2</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2388,7 +2310,7 @@
         <v>37</v>
       </c>
       <c r="B138">
-        <v>135</v>
+        <v>141.2</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2402,7 +2324,7 @@
         <v>38</v>
       </c>
       <c r="B139">
-        <v>130</v>
+        <v>146.4</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2416,7 +2338,7 @@
         <v>39</v>
       </c>
       <c r="B140">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2430,7 +2352,7 @@
         <v>40</v>
       </c>
       <c r="B141">
-        <v>141</v>
+        <v>135.8</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2444,7 +2366,7 @@
         <v>41</v>
       </c>
       <c r="B142">
-        <v>162</v>
+        <v>150.3</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2458,7 +2380,7 @@
         <v>42</v>
       </c>
       <c r="B143">
-        <v>137</v>
+        <v>142.6</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2472,7 +2394,7 @@
         <v>43</v>
       </c>
       <c r="B144">
-        <v>113</v>
+        <v>142.1</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2486,7 +2408,7 @@
         <v>44</v>
       </c>
       <c r="B145">
-        <v>154</v>
+        <v>138.8</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2500,7 +2422,7 @@
         <v>45</v>
       </c>
       <c r="B146">
-        <v>160</v>
+        <v>135.2</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2514,7 +2436,7 @@
         <v>46</v>
       </c>
       <c r="B147">
-        <v>147</v>
+        <v>155.2</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2528,7 +2450,7 @@
         <v>47</v>
       </c>
       <c r="B148">
-        <v>191</v>
+        <v>141.2</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2542,7 +2464,7 @@
         <v>48</v>
       </c>
       <c r="B149">
-        <v>153</v>
+        <v>146.4</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2556,7 +2478,7 @@
         <v>49</v>
       </c>
       <c r="B150">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -2570,7 +2492,7 @@
         <v>50</v>
       </c>
       <c r="B151">
-        <v>121</v>
+        <v>135.8</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -2584,7 +2506,7 @@
         <v>51</v>
       </c>
       <c r="B152">
-        <v>155</v>
+        <v>150.3</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -2598,7 +2520,7 @@
         <v>52</v>
       </c>
       <c r="B153">
-        <v>145</v>
+        <v>142.6</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -2612,7 +2534,7 @@
         <v>53</v>
       </c>
       <c r="B154">
-        <v>161</v>
+        <v>142.1</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -2626,7 +2548,7 @@
         <v>54</v>
       </c>
       <c r="B155">
-        <v>124</v>
+        <v>138.8</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -2640,7 +2562,7 @@
         <v>55</v>
       </c>
       <c r="B156">
-        <v>153</v>
+        <v>135.2</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -2654,7 +2576,7 @@
         <v>56</v>
       </c>
       <c r="B157">
-        <v>124</v>
+        <v>155.2</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -2668,7 +2590,7 @@
         <v>57</v>
       </c>
       <c r="B158">
-        <v>154</v>
+        <v>141.2</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -2682,7 +2604,7 @@
         <v>58</v>
       </c>
       <c r="B159">
-        <v>154</v>
+        <v>146.4</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -2696,7 +2618,7 @@
         <v>59</v>
       </c>
       <c r="B160">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -2710,7 +2632,7 @@
         <v>60</v>
       </c>
       <c r="B161">
-        <v>180</v>
+        <v>135.8</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -2724,7 +2646,7 @@
         <v>61</v>
       </c>
       <c r="B162">
-        <v>153</v>
+        <v>150.3</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -2738,7 +2660,7 @@
         <v>62</v>
       </c>
       <c r="B163">
-        <v>175</v>
+        <v>142.6</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -2752,7 +2674,7 @@
         <v>63</v>
       </c>
       <c r="B164">
-        <v>142</v>
+        <v>142.1</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -2766,7 +2688,7 @@
         <v>64</v>
       </c>
       <c r="B165">
-        <v>177</v>
+        <v>138.8</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -2780,7 +2702,7 @@
         <v>65</v>
       </c>
       <c r="B166">
-        <v>179</v>
+        <v>135.2</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -2794,7 +2716,7 @@
         <v>66</v>
       </c>
       <c r="B167">
-        <v>155</v>
+        <v>155.2</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -2808,7 +2730,7 @@
         <v>67</v>
       </c>
       <c r="B168">
-        <v>164</v>
+        <v>141.2</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -2822,7 +2744,7 @@
         <v>68</v>
       </c>
       <c r="B169">
-        <v>162</v>
+        <v>146.4</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -2836,7 +2758,7 @@
         <v>69</v>
       </c>
       <c r="B170">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -2850,7 +2772,7 @@
         <v>70</v>
       </c>
       <c r="B171">
-        <v>154</v>
+        <v>135.8</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -2864,7 +2786,7 @@
         <v>71</v>
       </c>
       <c r="B172">
-        <v>140</v>
+        <v>150.3</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -2878,7 +2800,7 @@
         <v>72</v>
       </c>
       <c r="B173">
-        <v>152</v>
+        <v>142.6</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -2892,7 +2814,7 @@
         <v>73</v>
       </c>
       <c r="B174">
-        <v>138</v>
+        <v>142.1</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -2906,7 +2828,7 @@
         <v>74</v>
       </c>
       <c r="B175">
-        <v>167</v>
+        <v>138.8</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -2920,7 +2842,7 @@
         <v>75</v>
       </c>
       <c r="B176">
-        <v>160</v>
+        <v>135.2</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -2934,7 +2856,7 @@
         <v>76</v>
       </c>
       <c r="B177">
-        <v>184</v>
+        <v>155.2</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -2948,7 +2870,7 @@
         <v>77</v>
       </c>
       <c r="B178">
-        <v>158</v>
+        <v>141.2</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -2962,7 +2884,7 @@
         <v>78</v>
       </c>
       <c r="B179">
-        <v>167</v>
+        <v>146.4</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -2976,7 +2898,7 @@
         <v>79</v>
       </c>
       <c r="B180">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -2990,7 +2912,7 @@
         <v>80</v>
       </c>
       <c r="B181">
-        <v>164</v>
+        <v>135.8</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3004,7 +2926,7 @@
         <v>81</v>
       </c>
       <c r="B182">
-        <v>174</v>
+        <v>150.3</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3018,7 +2940,7 @@
         <v>82</v>
       </c>
       <c r="B183">
-        <v>145</v>
+        <v>142.6</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3032,7 +2954,7 @@
         <v>83</v>
       </c>
       <c r="B184">
-        <v>172</v>
+        <v>142.1</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3046,7 +2968,7 @@
         <v>84</v>
       </c>
       <c r="B185">
-        <v>139</v>
+        <v>138.8</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3060,7 +2982,7 @@
         <v>85</v>
       </c>
       <c r="B186">
-        <v>189</v>
+        <v>135.2</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3074,7 +2996,7 @@
         <v>86</v>
       </c>
       <c r="B187">
-        <v>166</v>
+        <v>155.2</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3088,7 +3010,7 @@
         <v>87</v>
       </c>
       <c r="B188">
-        <v>124</v>
+        <v>141.2</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3102,7 +3024,7 @@
         <v>88</v>
       </c>
       <c r="B189">
-        <v>139</v>
+        <v>146.4</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3116,7 +3038,7 @@
         <v>89</v>
       </c>
       <c r="B190">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3130,7 +3052,7 @@
         <v>90</v>
       </c>
       <c r="B191">
-        <v>142</v>
+        <v>135.8</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3144,7 +3066,7 @@
         <v>91</v>
       </c>
       <c r="B192">
-        <v>145</v>
+        <v>150.3</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3158,7 +3080,7 @@
         <v>92</v>
       </c>
       <c r="B193">
-        <v>164</v>
+        <v>142.6</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3172,7 +3094,7 @@
         <v>93</v>
       </c>
       <c r="B194">
-        <v>183</v>
+        <v>142.1</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3186,7 +3108,7 @@
         <v>94</v>
       </c>
       <c r="B195">
-        <v>126</v>
+        <v>138.8</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3200,7 +3122,7 @@
         <v>95</v>
       </c>
       <c r="B196">
-        <v>144</v>
+        <v>135.2</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3214,7 +3136,7 @@
         <v>96</v>
       </c>
       <c r="B197">
-        <v>186</v>
+        <v>155.2</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3228,7 +3150,7 @@
         <v>97</v>
       </c>
       <c r="B198">
-        <v>168</v>
+        <v>141.2</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3242,7 +3164,7 @@
         <v>98</v>
       </c>
       <c r="B199">
-        <v>138</v>
+        <v>146.4</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3256,7 +3178,7 @@
         <v>99</v>
       </c>
       <c r="B200">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3270,7 +3192,7 @@
         <v>100</v>
       </c>
       <c r="B201">
-        <v>138</v>
+        <v>135.8</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3284,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="B202">
-        <v>162</v>
+        <v>156.8</v>
       </c>
       <c r="C202" t="s">
         <v>6</v>
@@ -3298,7 +3220,7 @@
         <v>2</v>
       </c>
       <c r="B203">
-        <v>151</v>
+        <v>148.3</v>
       </c>
       <c r="C203" t="s">
         <v>6</v>
@@ -3312,7 +3234,7 @@
         <v>3</v>
       </c>
       <c r="B204">
-        <v>160</v>
+        <v>143.1</v>
       </c>
       <c r="C204" t="s">
         <v>6</v>
@@ -3326,7 +3248,7 @@
         <v>4</v>
       </c>
       <c r="B205">
-        <v>153</v>
+        <v>141.9</v>
       </c>
       <c r="C205" t="s">
         <v>6</v>
@@ -3340,7 +3262,7 @@
         <v>5</v>
       </c>
       <c r="B206">
-        <v>195</v>
+        <v>139.4</v>
       </c>
       <c r="C206" t="s">
         <v>6</v>
@@ -3354,7 +3276,7 @@
         <v>6</v>
       </c>
       <c r="B207">
-        <v>197</v>
+        <v>160.7</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
@@ -3368,7 +3290,7 @@
         <v>7</v>
       </c>
       <c r="B208">
-        <v>136</v>
+        <v>145.5</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
@@ -3382,7 +3304,7 @@
         <v>8</v>
       </c>
       <c r="B209">
-        <v>167</v>
+        <v>149.1</v>
       </c>
       <c r="C209" t="s">
         <v>6</v>
@@ -3396,7 +3318,7 @@
         <v>9</v>
       </c>
       <c r="B210">
-        <v>179</v>
+        <v>151.9</v>
       </c>
       <c r="C210" t="s">
         <v>6</v>
@@ -3410,7 +3332,7 @@
         <v>10</v>
       </c>
       <c r="B211">
-        <v>143</v>
+        <v>134.7</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
@@ -3424,7 +3346,7 @@
         <v>11</v>
       </c>
       <c r="B212">
-        <v>166</v>
+        <v>156.8</v>
       </c>
       <c r="C212" t="s">
         <v>6</v>
@@ -3438,7 +3360,7 @@
         <v>12</v>
       </c>
       <c r="B213">
-        <v>135</v>
+        <v>148.3</v>
       </c>
       <c r="C213" t="s">
         <v>6</v>
@@ -3452,7 +3374,7 @@
         <v>13</v>
       </c>
       <c r="B214">
-        <v>132</v>
+        <v>143.1</v>
       </c>
       <c r="C214" t="s">
         <v>6</v>
@@ -3466,7 +3388,7 @@
         <v>14</v>
       </c>
       <c r="B215">
-        <v>140</v>
+        <v>141.9</v>
       </c>
       <c r="C215" t="s">
         <v>6</v>
@@ -3480,7 +3402,7 @@
         <v>15</v>
       </c>
       <c r="B216">
-        <v>172</v>
+        <v>139.4</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
@@ -3494,7 +3416,7 @@
         <v>16</v>
       </c>
       <c r="B217">
-        <v>159</v>
+        <v>160.7</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
@@ -3508,7 +3430,7 @@
         <v>17</v>
       </c>
       <c r="B218">
-        <v>130</v>
+        <v>145.5</v>
       </c>
       <c r="C218" t="s">
         <v>6</v>
@@ -3522,7 +3444,7 @@
         <v>18</v>
       </c>
       <c r="B219">
-        <v>147</v>
+        <v>149.1</v>
       </c>
       <c r="C219" t="s">
         <v>6</v>
@@ -3536,7 +3458,7 @@
         <v>19</v>
       </c>
       <c r="B220">
-        <v>160</v>
+        <v>151.9</v>
       </c>
       <c r="C220" t="s">
         <v>6</v>
@@ -3550,7 +3472,7 @@
         <v>20</v>
       </c>
       <c r="B221">
-        <v>167</v>
+        <v>134.7</v>
       </c>
       <c r="C221" t="s">
         <v>6</v>
@@ -3564,7 +3486,7 @@
         <v>21</v>
       </c>
       <c r="B222">
-        <v>174</v>
+        <v>156.8</v>
       </c>
       <c r="C222" t="s">
         <v>6</v>
@@ -3578,7 +3500,7 @@
         <v>22</v>
       </c>
       <c r="B223">
-        <v>140</v>
+        <v>148.3</v>
       </c>
       <c r="C223" t="s">
         <v>6</v>
@@ -3592,7 +3514,7 @@
         <v>23</v>
       </c>
       <c r="B224">
-        <v>119</v>
+        <v>143.1</v>
       </c>
       <c r="C224" t="s">
         <v>6</v>
@@ -3606,7 +3528,7 @@
         <v>24</v>
       </c>
       <c r="B225">
-        <v>104</v>
+        <v>141.9</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
@@ -3620,7 +3542,7 @@
         <v>25</v>
       </c>
       <c r="B226">
-        <v>145</v>
+        <v>139.4</v>
       </c>
       <c r="C226" t="s">
         <v>6</v>
@@ -3634,7 +3556,7 @@
         <v>26</v>
       </c>
       <c r="B227">
-        <v>136</v>
+        <v>160.7</v>
       </c>
       <c r="C227" t="s">
         <v>6</v>
@@ -3648,7 +3570,7 @@
         <v>27</v>
       </c>
       <c r="B228">
-        <v>134</v>
+        <v>145.5</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
@@ -3662,7 +3584,7 @@
         <v>28</v>
       </c>
       <c r="B229">
-        <v>103</v>
+        <v>149.1</v>
       </c>
       <c r="C229" t="s">
         <v>6</v>
@@ -3676,7 +3598,7 @@
         <v>29</v>
       </c>
       <c r="B230">
-        <v>178</v>
+        <v>151.9</v>
       </c>
       <c r="C230" t="s">
         <v>6</v>
@@ -3690,7 +3612,7 @@
         <v>30</v>
       </c>
       <c r="B231">
-        <v>112</v>
+        <v>134.7</v>
       </c>
       <c r="C231" t="s">
         <v>6</v>
@@ -3704,7 +3626,7 @@
         <v>31</v>
       </c>
       <c r="B232">
-        <v>130</v>
+        <v>156.8</v>
       </c>
       <c r="C232" t="s">
         <v>6</v>
@@ -3718,7 +3640,7 @@
         <v>32</v>
       </c>
       <c r="B233">
-        <v>158</v>
+        <v>148.3</v>
       </c>
       <c r="C233" t="s">
         <v>6</v>
@@ -3732,7 +3654,7 @@
         <v>33</v>
       </c>
       <c r="B234">
-        <v>150</v>
+        <v>143.1</v>
       </c>
       <c r="C234" t="s">
         <v>6</v>
@@ -3746,7 +3668,7 @@
         <v>34</v>
       </c>
       <c r="B235">
-        <v>164</v>
+        <v>141.9</v>
       </c>
       <c r="C235" t="s">
         <v>6</v>
@@ -3760,7 +3682,7 @@
         <v>35</v>
       </c>
       <c r="B236">
-        <v>182</v>
+        <v>139.4</v>
       </c>
       <c r="C236" t="s">
         <v>6</v>
@@ -3774,7 +3696,7 @@
         <v>36</v>
       </c>
       <c r="B237">
-        <v>110</v>
+        <v>160.7</v>
       </c>
       <c r="C237" t="s">
         <v>6</v>
@@ -3788,7 +3710,7 @@
         <v>37</v>
       </c>
       <c r="B238">
-        <v>136</v>
+        <v>145.5</v>
       </c>
       <c r="C238" t="s">
         <v>6</v>
@@ -3802,7 +3724,7 @@
         <v>38</v>
       </c>
       <c r="B239">
-        <v>110</v>
+        <v>149.1</v>
       </c>
       <c r="C239" t="s">
         <v>6</v>
@@ -3816,7 +3738,7 @@
         <v>39</v>
       </c>
       <c r="B240">
-        <v>141</v>
+        <v>151.9</v>
       </c>
       <c r="C240" t="s">
         <v>6</v>
@@ -3830,7 +3752,7 @@
         <v>40</v>
       </c>
       <c r="B241">
-        <v>158</v>
+        <v>134.7</v>
       </c>
       <c r="C241" t="s">
         <v>6</v>
@@ -3844,7 +3766,7 @@
         <v>41</v>
       </c>
       <c r="B242">
-        <v>158</v>
+        <v>156.8</v>
       </c>
       <c r="C242" t="s">
         <v>6</v>
@@ -3858,7 +3780,7 @@
         <v>42</v>
       </c>
       <c r="B243">
-        <v>140</v>
+        <v>148.3</v>
       </c>
       <c r="C243" t="s">
         <v>6</v>
@@ -3872,7 +3794,7 @@
         <v>43</v>
       </c>
       <c r="B244">
-        <v>121</v>
+        <v>143.1</v>
       </c>
       <c r="C244" t="s">
         <v>6</v>
@@ -3886,7 +3808,7 @@
         <v>44</v>
       </c>
       <c r="B245">
-        <v>144</v>
+        <v>141.9</v>
       </c>
       <c r="C245" t="s">
         <v>6</v>
@@ -3900,7 +3822,7 @@
         <v>45</v>
       </c>
       <c r="B246">
-        <v>154</v>
+        <v>139.4</v>
       </c>
       <c r="C246" t="s">
         <v>6</v>
@@ -3914,7 +3836,7 @@
         <v>46</v>
       </c>
       <c r="B247">
-        <v>167</v>
+        <v>160.7</v>
       </c>
       <c r="C247" t="s">
         <v>6</v>
@@ -3928,7 +3850,7 @@
         <v>47</v>
       </c>
       <c r="B248">
-        <v>181</v>
+        <v>145.5</v>
       </c>
       <c r="C248" t="s">
         <v>6</v>
@@ -3942,7 +3864,7 @@
         <v>48</v>
       </c>
       <c r="B249">
-        <v>162</v>
+        <v>149.1</v>
       </c>
       <c r="C249" t="s">
         <v>6</v>
@@ -3956,7 +3878,7 @@
         <v>49</v>
       </c>
       <c r="B250">
-        <v>143</v>
+        <v>151.9</v>
       </c>
       <c r="C250" t="s">
         <v>6</v>
@@ -3970,7 +3892,7 @@
         <v>50</v>
       </c>
       <c r="B251">
-        <v>122</v>
+        <v>134.7</v>
       </c>
       <c r="C251" t="s">
         <v>6</v>
@@ -3984,7 +3906,7 @@
         <v>51</v>
       </c>
       <c r="B252">
-        <v>159</v>
+        <v>156.8</v>
       </c>
       <c r="C252" t="s">
         <v>6</v>
@@ -3998,7 +3920,7 @@
         <v>52</v>
       </c>
       <c r="B253">
-        <v>153</v>
+        <v>148.3</v>
       </c>
       <c r="C253" t="s">
         <v>6</v>
@@ -4012,7 +3934,7 @@
         <v>53</v>
       </c>
       <c r="B254">
-        <v>167</v>
+        <v>143.1</v>
       </c>
       <c r="C254" t="s">
         <v>6</v>
@@ -4026,7 +3948,7 @@
         <v>54</v>
       </c>
       <c r="B255">
-        <v>116</v>
+        <v>141.9</v>
       </c>
       <c r="C255" t="s">
         <v>6</v>
@@ -4040,7 +3962,7 @@
         <v>55</v>
       </c>
       <c r="B256">
-        <v>159</v>
+        <v>139.4</v>
       </c>
       <c r="C256" t="s">
         <v>6</v>
@@ -4054,7 +3976,7 @@
         <v>56</v>
       </c>
       <c r="B257">
-        <v>129</v>
+        <v>160.7</v>
       </c>
       <c r="C257" t="s">
         <v>6</v>
@@ -4068,7 +3990,7 @@
         <v>57</v>
       </c>
       <c r="B258">
-        <v>151</v>
+        <v>145.5</v>
       </c>
       <c r="C258" t="s">
         <v>6</v>
@@ -4082,7 +4004,7 @@
         <v>58</v>
       </c>
       <c r="B259">
-        <v>167</v>
+        <v>149.1</v>
       </c>
       <c r="C259" t="s">
         <v>6</v>
@@ -4096,7 +4018,7 @@
         <v>59</v>
       </c>
       <c r="B260">
-        <v>158</v>
+        <v>151.9</v>
       </c>
       <c r="C260" t="s">
         <v>6</v>
@@ -4110,7 +4032,7 @@
         <v>60</v>
       </c>
       <c r="B261">
-        <v>185</v>
+        <v>134.7</v>
       </c>
       <c r="C261" t="s">
         <v>6</v>
@@ -4124,7 +4046,7 @@
         <v>61</v>
       </c>
       <c r="B262">
-        <v>169</v>
+        <v>156.8</v>
       </c>
       <c r="C262" t="s">
         <v>6</v>
@@ -4138,7 +4060,7 @@
         <v>62</v>
       </c>
       <c r="B263">
-        <v>169</v>
+        <v>148.3</v>
       </c>
       <c r="C263" t="s">
         <v>6</v>
@@ -4152,7 +4074,7 @@
         <v>63</v>
       </c>
       <c r="B264">
-        <v>151</v>
+        <v>143.1</v>
       </c>
       <c r="C264" t="s">
         <v>6</v>
@@ -4166,7 +4088,7 @@
         <v>64</v>
       </c>
       <c r="B265">
-        <v>174</v>
+        <v>141.9</v>
       </c>
       <c r="C265" t="s">
         <v>6</v>
@@ -4180,7 +4102,7 @@
         <v>65</v>
       </c>
       <c r="B266">
-        <v>173</v>
+        <v>139.4</v>
       </c>
       <c r="C266" t="s">
         <v>6</v>
@@ -4194,7 +4116,7 @@
         <v>66</v>
       </c>
       <c r="B267">
-        <v>179</v>
+        <v>160.7</v>
       </c>
       <c r="C267" t="s">
         <v>6</v>
@@ -4208,7 +4130,7 @@
         <v>67</v>
       </c>
       <c r="B268">
-        <v>168</v>
+        <v>145.5</v>
       </c>
       <c r="C268" t="s">
         <v>6</v>
@@ -4222,7 +4144,7 @@
         <v>68</v>
       </c>
       <c r="B269">
-        <v>212</v>
+        <v>149.1</v>
       </c>
       <c r="C269" t="s">
         <v>6</v>
@@ -4236,7 +4158,7 @@
         <v>69</v>
       </c>
       <c r="B270">
-        <v>131</v>
+        <v>151.9</v>
       </c>
       <c r="C270" t="s">
         <v>6</v>
@@ -4250,7 +4172,7 @@
         <v>70</v>
       </c>
       <c r="B271">
-        <v>161</v>
+        <v>134.7</v>
       </c>
       <c r="C271" t="s">
         <v>6</v>
@@ -4264,7 +4186,7 @@
         <v>71</v>
       </c>
       <c r="B272">
-        <v>146</v>
+        <v>156.8</v>
       </c>
       <c r="C272" t="s">
         <v>6</v>
@@ -4278,7 +4200,7 @@
         <v>72</v>
       </c>
       <c r="B273">
-        <v>151</v>
+        <v>148.3</v>
       </c>
       <c r="C273" t="s">
         <v>6</v>
@@ -4292,7 +4214,7 @@
         <v>73</v>
       </c>
       <c r="B274">
-        <v>156</v>
+        <v>143.1</v>
       </c>
       <c r="C274" t="s">
         <v>6</v>
@@ -4306,7 +4228,7 @@
         <v>74</v>
       </c>
       <c r="B275">
-        <v>161</v>
+        <v>141.9</v>
       </c>
       <c r="C275" t="s">
         <v>6</v>
@@ -4320,7 +4242,7 @@
         <v>75</v>
       </c>
       <c r="B276">
-        <v>164</v>
+        <v>139.4</v>
       </c>
       <c r="C276" t="s">
         <v>6</v>
@@ -4334,7 +4256,7 @@
         <v>76</v>
       </c>
       <c r="B277">
-        <v>190</v>
+        <v>160.7</v>
       </c>
       <c r="C277" t="s">
         <v>6</v>
@@ -4348,7 +4270,7 @@
         <v>77</v>
       </c>
       <c r="B278">
-        <v>168</v>
+        <v>145.5</v>
       </c>
       <c r="C278" t="s">
         <v>6</v>
@@ -4362,7 +4284,7 @@
         <v>78</v>
       </c>
       <c r="B279">
-        <v>158</v>
+        <v>149.1</v>
       </c>
       <c r="C279" t="s">
         <v>6</v>
@@ -4376,7 +4298,7 @@
         <v>79</v>
       </c>
       <c r="B280">
-        <v>151</v>
+        <v>151.9</v>
       </c>
       <c r="C280" t="s">
         <v>6</v>
@@ -4390,7 +4312,7 @@
         <v>80</v>
       </c>
       <c r="B281">
-        <v>171</v>
+        <v>134.7</v>
       </c>
       <c r="C281" t="s">
         <v>6</v>
@@ -4404,7 +4326,7 @@
         <v>81</v>
       </c>
       <c r="B282">
-        <v>191</v>
+        <v>156.8</v>
       </c>
       <c r="C282" t="s">
         <v>6</v>
@@ -4418,7 +4340,7 @@
         <v>82</v>
       </c>
       <c r="B283">
-        <v>141</v>
+        <v>148.3</v>
       </c>
       <c r="C283" t="s">
         <v>6</v>
@@ -4432,7 +4354,7 @@
         <v>83</v>
       </c>
       <c r="B284">
-        <v>157</v>
+        <v>143.1</v>
       </c>
       <c r="C284" t="s">
         <v>6</v>
@@ -4446,7 +4368,7 @@
         <v>84</v>
       </c>
       <c r="B285">
-        <v>137</v>
+        <v>141.9</v>
       </c>
       <c r="C285" t="s">
         <v>6</v>
@@ -4460,7 +4382,7 @@
         <v>85</v>
       </c>
       <c r="B286">
-        <v>201</v>
+        <v>139.4</v>
       </c>
       <c r="C286" t="s">
         <v>6</v>
@@ -4474,7 +4396,7 @@
         <v>86</v>
       </c>
       <c r="B287">
-        <v>155</v>
+        <v>160.7</v>
       </c>
       <c r="C287" t="s">
         <v>6</v>
@@ -4488,7 +4410,7 @@
         <v>87</v>
       </c>
       <c r="B288">
-        <v>125</v>
+        <v>145.5</v>
       </c>
       <c r="C288" t="s">
         <v>6</v>
@@ -4502,7 +4424,7 @@
         <v>88</v>
       </c>
       <c r="B289">
-        <v>143</v>
+        <v>149.1</v>
       </c>
       <c r="C289" t="s">
         <v>6</v>
@@ -4516,7 +4438,7 @@
         <v>89</v>
       </c>
       <c r="B290">
-        <v>131</v>
+        <v>151.9</v>
       </c>
       <c r="C290" t="s">
         <v>6</v>
@@ -4530,7 +4452,7 @@
         <v>90</v>
       </c>
       <c r="B291">
-        <v>166</v>
+        <v>134.7</v>
       </c>
       <c r="C291" t="s">
         <v>6</v>
@@ -4544,7 +4466,7 @@
         <v>91</v>
       </c>
       <c r="B292">
-        <v>147</v>
+        <v>156.8</v>
       </c>
       <c r="C292" t="s">
         <v>6</v>
@@ -4558,7 +4480,7 @@
         <v>92</v>
       </c>
       <c r="B293">
-        <v>167</v>
+        <v>148.3</v>
       </c>
       <c r="C293" t="s">
         <v>6</v>
@@ -4572,7 +4494,7 @@
         <v>93</v>
       </c>
       <c r="B294">
-        <v>183</v>
+        <v>143.1</v>
       </c>
       <c r="C294" t="s">
         <v>6</v>
@@ -4586,7 +4508,7 @@
         <v>94</v>
       </c>
       <c r="B295">
-        <v>146</v>
+        <v>141.9</v>
       </c>
       <c r="C295" t="s">
         <v>6</v>
@@ -4600,7 +4522,7 @@
         <v>95</v>
       </c>
       <c r="B296">
-        <v>161</v>
+        <v>139.4</v>
       </c>
       <c r="C296" t="s">
         <v>6</v>
@@ -4614,7 +4536,7 @@
         <v>96</v>
       </c>
       <c r="B297">
-        <v>187</v>
+        <v>160.7</v>
       </c>
       <c r="C297" t="s">
         <v>6</v>
@@ -4628,7 +4550,7 @@
         <v>97</v>
       </c>
       <c r="B298">
-        <v>162</v>
+        <v>145.5</v>
       </c>
       <c r="C298" t="s">
         <v>6</v>
@@ -4642,7 +4564,7 @@
         <v>98</v>
       </c>
       <c r="B299">
-        <v>155</v>
+        <v>149.1</v>
       </c>
       <c r="C299" t="s">
         <v>6</v>
@@ -4656,7 +4578,7 @@
         <v>99</v>
       </c>
       <c r="B300">
-        <v>152</v>
+        <v>151.9</v>
       </c>
       <c r="C300" t="s">
         <v>6</v>
@@ -4670,7 +4592,7 @@
         <v>100</v>
       </c>
       <c r="B301">
-        <v>145</v>
+        <v>134.7</v>
       </c>
       <c r="C301" t="s">
         <v>6</v>
@@ -4684,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="B302">
-        <v>196</v>
+        <v>214.8</v>
       </c>
       <c r="C302" t="s">
         <v>7</v>
@@ -4698,7 +4620,7 @@
         <v>2</v>
       </c>
       <c r="B303">
-        <v>184</v>
+        <v>194.7</v>
       </c>
       <c r="C303" t="s">
         <v>7</v>
@@ -4712,7 +4634,7 @@
         <v>3</v>
       </c>
       <c r="B304">
-        <v>215</v>
+        <v>198.4</v>
       </c>
       <c r="C304" t="s">
         <v>7</v>
@@ -4726,7 +4648,7 @@
         <v>4</v>
       </c>
       <c r="B305">
-        <v>222</v>
+        <v>200.2</v>
       </c>
       <c r="C305" t="s">
         <v>7</v>
@@ -4740,7 +4662,7 @@
         <v>5</v>
       </c>
       <c r="B306">
-        <v>240</v>
+        <v>190.2</v>
       </c>
       <c r="C306" t="s">
         <v>7</v>
@@ -4754,7 +4676,7 @@
         <v>6</v>
       </c>
       <c r="B307">
-        <v>258</v>
+        <v>225.3</v>
       </c>
       <c r="C307" t="s">
         <v>7</v>
@@ -4768,7 +4690,7 @@
         <v>7</v>
       </c>
       <c r="B308">
-        <v>201</v>
+        <v>194.8</v>
       </c>
       <c r="C308" t="s">
         <v>7</v>
@@ -4782,7 +4704,7 @@
         <v>8</v>
       </c>
       <c r="B309">
-        <v>223</v>
+        <v>192.8</v>
       </c>
       <c r="C309" t="s">
         <v>7</v>
@@ -4796,7 +4718,7 @@
         <v>9</v>
       </c>
       <c r="B310">
-        <v>230</v>
+        <v>206.4</v>
       </c>
       <c r="C310" t="s">
         <v>7</v>
@@ -4810,7 +4732,7 @@
         <v>10</v>
       </c>
       <c r="B311">
-        <v>214</v>
+        <v>184.5</v>
       </c>
       <c r="C311" t="s">
         <v>7</v>
@@ -4824,7 +4746,7 @@
         <v>11</v>
       </c>
       <c r="B312">
-        <v>210</v>
+        <v>217.7</v>
       </c>
       <c r="C312" t="s">
         <v>7</v>
@@ -4838,7 +4760,7 @@
         <v>12</v>
       </c>
       <c r="B313">
-        <v>223</v>
+        <v>209.5</v>
       </c>
       <c r="C313" t="s">
         <v>7</v>
@@ -4852,7 +4774,7 @@
         <v>13</v>
       </c>
       <c r="B314">
-        <v>219</v>
+        <v>191.8</v>
       </c>
       <c r="C314" t="s">
         <v>7</v>
@@ -4866,7 +4788,7 @@
         <v>14</v>
       </c>
       <c r="B315">
-        <v>191</v>
+        <v>200.5</v>
       </c>
       <c r="C315" t="s">
         <v>7</v>
@@ -4880,7 +4802,7 @@
         <v>15</v>
       </c>
       <c r="B316">
-        <v>232</v>
+        <v>192.1</v>
       </c>
       <c r="C316" t="s">
         <v>7</v>
@@ -4894,7 +4816,7 @@
         <v>16</v>
       </c>
       <c r="B317">
-        <v>231</v>
+        <v>223.9</v>
       </c>
       <c r="C317" t="s">
         <v>7</v>
@@ -4908,7 +4830,7 @@
         <v>17</v>
       </c>
       <c r="B318">
-        <v>182</v>
+        <v>207.7</v>
       </c>
       <c r="C318" t="s">
         <v>7</v>
@@ -4922,7 +4844,7 @@
         <v>18</v>
       </c>
       <c r="B319">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C319" t="s">
         <v>7</v>
@@ -4936,7 +4858,7 @@
         <v>19</v>
       </c>
       <c r="B320">
-        <v>209</v>
+        <v>202.3</v>
       </c>
       <c r="C320" t="s">
         <v>7</v>
@@ -4950,7 +4872,7 @@
         <v>20</v>
       </c>
       <c r="B321">
-        <v>197</v>
+        <v>199.8</v>
       </c>
       <c r="C321" t="s">
         <v>7</v>
@@ -4964,7 +4886,7 @@
         <v>21</v>
       </c>
       <c r="B322">
-        <v>254</v>
+        <v>202.7</v>
       </c>
       <c r="C322" t="s">
         <v>7</v>
@@ -4978,7 +4900,7 @@
         <v>22</v>
       </c>
       <c r="B323">
-        <v>200</v>
+        <v>211.2</v>
       </c>
       <c r="C323" t="s">
         <v>7</v>
@@ -4992,7 +4914,7 @@
         <v>23</v>
       </c>
       <c r="B324">
-        <v>159</v>
+        <v>205.2</v>
       </c>
       <c r="C324" t="s">
         <v>7</v>
@@ -5006,7 +4928,7 @@
         <v>24</v>
       </c>
       <c r="B325">
-        <v>157</v>
+        <v>203.7</v>
       </c>
       <c r="C325" t="s">
         <v>7</v>
@@ -5020,7 +4942,7 @@
         <v>25</v>
       </c>
       <c r="B326">
-        <v>180</v>
+        <v>191.1</v>
       </c>
       <c r="C326" t="s">
         <v>7</v>
@@ -5034,7 +4956,7 @@
         <v>26</v>
       </c>
       <c r="B327">
-        <v>197</v>
+        <v>228.5</v>
       </c>
       <c r="C327" t="s">
         <v>7</v>
@@ -5048,7 +4970,7 @@
         <v>27</v>
       </c>
       <c r="B328">
-        <v>189</v>
+        <v>191.2</v>
       </c>
       <c r="C328" t="s">
         <v>7</v>
@@ -5062,7 +4984,7 @@
         <v>28</v>
       </c>
       <c r="B329">
-        <v>170</v>
+        <v>198.1</v>
       </c>
       <c r="C329" t="s">
         <v>7</v>
@@ -5076,7 +4998,7 @@
         <v>29</v>
       </c>
       <c r="B330">
-        <v>261</v>
+        <v>194.4</v>
       </c>
       <c r="C330" t="s">
         <v>7</v>
@@ -5090,7 +5012,7 @@
         <v>30</v>
       </c>
       <c r="B331">
-        <v>171</v>
+        <v>191.1</v>
       </c>
       <c r="C331" t="s">
         <v>7</v>
@@ -5104,7 +5026,7 @@
         <v>31</v>
       </c>
       <c r="B332">
-        <v>184</v>
+        <v>208.7</v>
       </c>
       <c r="C332" t="s">
         <v>7</v>
@@ -5118,7 +5040,7 @@
         <v>32</v>
       </c>
       <c r="B333">
-        <v>218</v>
+        <v>198.3</v>
       </c>
       <c r="C333" t="s">
         <v>7</v>
@@ -5132,7 +5054,7 @@
         <v>33</v>
       </c>
       <c r="B334">
-        <v>198</v>
+        <v>199.5</v>
       </c>
       <c r="C334" t="s">
         <v>7</v>
@@ -5146,7 +5068,7 @@
         <v>34</v>
       </c>
       <c r="B335">
-        <v>227</v>
+        <v>198.6</v>
       </c>
       <c r="C335" t="s">
         <v>7</v>
@@ -5160,7 +5082,7 @@
         <v>35</v>
       </c>
       <c r="B336">
-        <v>253</v>
+        <v>195.6</v>
       </c>
       <c r="C336" t="s">
         <v>7</v>
@@ -5174,7 +5096,7 @@
         <v>36</v>
       </c>
       <c r="B337">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="C337" t="s">
         <v>7</v>
@@ -5188,7 +5110,7 @@
         <v>37</v>
       </c>
       <c r="B338">
-        <v>169</v>
+        <v>194.3</v>
       </c>
       <c r="C338" t="s">
         <v>7</v>
@@ -5202,7 +5124,7 @@
         <v>38</v>
       </c>
       <c r="B339">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="C339" t="s">
         <v>7</v>
@@ -5216,7 +5138,7 @@
         <v>39</v>
       </c>
       <c r="B340">
-        <v>205</v>
+        <v>191.1</v>
       </c>
       <c r="C340" t="s">
         <v>7</v>
@@ -5230,7 +5152,7 @@
         <v>40</v>
       </c>
       <c r="B341">
-        <v>195</v>
+        <v>186.6</v>
       </c>
       <c r="C341" t="s">
         <v>7</v>
@@ -5244,7 +5166,7 @@
         <v>41</v>
       </c>
       <c r="B342">
-        <v>217</v>
+        <v>210.4</v>
       </c>
       <c r="C342" t="s">
         <v>7</v>
@@ -5258,7 +5180,7 @@
         <v>42</v>
       </c>
       <c r="B343">
-        <v>192</v>
+        <v>207.2</v>
       </c>
       <c r="C343" t="s">
         <v>7</v>
@@ -5272,7 +5194,7 @@
         <v>43</v>
       </c>
       <c r="B344">
-        <v>168</v>
+        <v>200.7</v>
       </c>
       <c r="C344" t="s">
         <v>7</v>
@@ -5286,7 +5208,7 @@
         <v>44</v>
       </c>
       <c r="B345">
-        <v>204</v>
+        <v>211.7</v>
       </c>
       <c r="C345" t="s">
         <v>7</v>
@@ -5300,7 +5222,7 @@
         <v>45</v>
       </c>
       <c r="B346">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C346" t="s">
         <v>7</v>
@@ -5314,7 +5236,7 @@
         <v>46</v>
       </c>
       <c r="B347">
-        <v>206</v>
+        <v>219.8</v>
       </c>
       <c r="C347" t="s">
         <v>7</v>
@@ -5328,7 +5250,7 @@
         <v>47</v>
       </c>
       <c r="B348">
-        <v>252</v>
+        <v>198.9</v>
       </c>
       <c r="C348" t="s">
         <v>7</v>
@@ -5342,7 +5264,7 @@
         <v>48</v>
       </c>
       <c r="B349">
-        <v>198</v>
+        <v>206.5</v>
       </c>
       <c r="C349" t="s">
         <v>7</v>
@@ -5356,7 +5278,7 @@
         <v>49</v>
       </c>
       <c r="B350">
-        <v>192</v>
+        <v>202.4</v>
       </c>
       <c r="C350" t="s">
         <v>7</v>
@@ -5370,7 +5292,7 @@
         <v>50</v>
       </c>
       <c r="B351">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="C351" t="s">
         <v>7</v>
@@ -5384,7 +5306,7 @@
         <v>51</v>
       </c>
       <c r="B352">
-        <v>206</v>
+        <v>204.2</v>
       </c>
       <c r="C352" t="s">
         <v>7</v>
@@ -5398,7 +5320,7 @@
         <v>52</v>
       </c>
       <c r="B353">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C353" t="s">
         <v>7</v>
@@ -5412,7 +5334,7 @@
         <v>53</v>
       </c>
       <c r="B354">
-        <v>189</v>
+        <v>195.7</v>
       </c>
       <c r="C354" t="s">
         <v>7</v>
@@ -5426,7 +5348,7 @@
         <v>54</v>
       </c>
       <c r="B355">
-        <v>204</v>
+        <v>199.8</v>
       </c>
       <c r="C355" t="s">
         <v>7</v>
@@ -5440,7 +5362,7 @@
         <v>55</v>
       </c>
       <c r="B356">
-        <v>210</v>
+        <v>193.5</v>
       </c>
       <c r="C356" t="s">
         <v>7</v>
@@ -5454,7 +5376,7 @@
         <v>56</v>
       </c>
       <c r="B357">
-        <v>179</v>
+        <v>212.8</v>
       </c>
       <c r="C357" t="s">
         <v>7</v>
@@ -5468,7 +5390,7 @@
         <v>57</v>
       </c>
       <c r="B358">
-        <v>222</v>
+        <v>193.9</v>
       </c>
       <c r="C358" t="s">
         <v>7</v>
@@ -5482,7 +5404,7 @@
         <v>58</v>
       </c>
       <c r="B359">
-        <v>267</v>
+        <v>201</v>
       </c>
       <c r="C359" t="s">
         <v>7</v>
@@ -5496,7 +5418,7 @@
         <v>59</v>
       </c>
       <c r="B360">
-        <v>233</v>
+        <v>202.1</v>
       </c>
       <c r="C360" t="s">
         <v>7</v>
@@ -5510,7 +5432,7 @@
         <v>60</v>
       </c>
       <c r="B361">
-        <v>239</v>
+        <v>197.7</v>
       </c>
       <c r="C361" t="s">
         <v>7</v>
@@ -5524,7 +5446,7 @@
         <v>61</v>
       </c>
       <c r="B362">
-        <v>223</v>
+        <v>199.9</v>
       </c>
       <c r="C362" t="s">
         <v>7</v>
@@ -5538,7 +5460,7 @@
         <v>62</v>
       </c>
       <c r="B363">
-        <v>252</v>
+        <v>199.6</v>
       </c>
       <c r="C363" t="s">
         <v>7</v>
@@ -5552,7 +5474,7 @@
         <v>63</v>
       </c>
       <c r="B364">
-        <v>221</v>
+        <v>197.6</v>
       </c>
       <c r="C364" t="s">
         <v>7</v>
@@ -5566,7 +5488,7 @@
         <v>64</v>
       </c>
       <c r="B365">
-        <v>224</v>
+        <v>204.9</v>
       </c>
       <c r="C365" t="s">
         <v>7</v>
@@ -5580,7 +5502,7 @@
         <v>65</v>
       </c>
       <c r="B366">
-        <v>217</v>
+        <v>190.1</v>
       </c>
       <c r="C366" t="s">
         <v>7</v>
@@ -5594,7 +5516,7 @@
         <v>66</v>
       </c>
       <c r="B367">
-        <v>235</v>
+        <v>224.5</v>
       </c>
       <c r="C367" t="s">
         <v>7</v>
@@ -5608,7 +5530,7 @@
         <v>67</v>
       </c>
       <c r="B368">
-        <v>215</v>
+        <v>187.7</v>
       </c>
       <c r="C368" t="s">
         <v>7</v>
@@ -5622,7 +5544,7 @@
         <v>68</v>
       </c>
       <c r="B369">
-        <v>245</v>
+        <v>213.7</v>
       </c>
       <c r="C369" t="s">
         <v>7</v>
@@ -5636,7 +5558,7 @@
         <v>69</v>
       </c>
       <c r="B370">
-        <v>180</v>
+        <v>196.9</v>
       </c>
       <c r="C370" t="s">
         <v>7</v>
@@ -5650,7 +5572,7 @@
         <v>70</v>
       </c>
       <c r="B371">
-        <v>236</v>
+        <v>189.4</v>
       </c>
       <c r="C371" t="s">
         <v>7</v>
@@ -5664,7 +5586,7 @@
         <v>71</v>
       </c>
       <c r="B372">
-        <v>179</v>
+        <v>207.6</v>
       </c>
       <c r="C372" t="s">
         <v>7</v>
@@ -5678,7 +5600,7 @@
         <v>72</v>
       </c>
       <c r="B373">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C373" t="s">
         <v>7</v>
@@ -5692,7 +5614,7 @@
         <v>73</v>
       </c>
       <c r="B374">
-        <v>178</v>
+        <v>200.9</v>
       </c>
       <c r="C374" t="s">
         <v>7</v>
@@ -5706,7 +5628,7 @@
         <v>74</v>
       </c>
       <c r="B375">
-        <v>224</v>
+        <v>207.4</v>
       </c>
       <c r="C375" t="s">
         <v>7</v>
@@ -5720,7 +5642,7 @@
         <v>75</v>
       </c>
       <c r="B376">
-        <v>235</v>
+        <v>193.6</v>
       </c>
       <c r="C376" t="s">
         <v>7</v>
@@ -5734,7 +5656,7 @@
         <v>76</v>
       </c>
       <c r="B377">
-        <v>214</v>
+        <v>213.4</v>
       </c>
       <c r="C377" t="s">
         <v>7</v>
@@ -5748,7 +5670,7 @@
         <v>77</v>
       </c>
       <c r="B378">
-        <v>206</v>
+        <v>201.7</v>
       </c>
       <c r="C378" t="s">
         <v>7</v>
@@ -5762,7 +5684,7 @@
         <v>78</v>
       </c>
       <c r="B379">
-        <v>226</v>
+        <v>200.8</v>
       </c>
       <c r="C379" t="s">
         <v>7</v>
@@ -5776,7 +5698,7 @@
         <v>79</v>
       </c>
       <c r="B380">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="C380" t="s">
         <v>7</v>
@@ -5790,7 +5712,7 @@
         <v>80</v>
       </c>
       <c r="B381">
-        <v>206</v>
+        <v>190.4</v>
       </c>
       <c r="C381" t="s">
         <v>7</v>
@@ -5804,7 +5726,7 @@
         <v>81</v>
       </c>
       <c r="B382">
-        <v>285</v>
+        <v>200.6</v>
       </c>
       <c r="C382" t="s">
         <v>7</v>
@@ -5818,7 +5740,7 @@
         <v>82</v>
       </c>
       <c r="B383">
-        <v>211</v>
+        <v>196.3</v>
       </c>
       <c r="C383" t="s">
         <v>7</v>
@@ -5832,7 +5754,7 @@
         <v>83</v>
       </c>
       <c r="B384">
-        <v>220</v>
+        <v>207.5</v>
       </c>
       <c r="C384" t="s">
         <v>7</v>
@@ -5846,7 +5768,7 @@
         <v>84</v>
       </c>
       <c r="B385">
-        <v>213</v>
+        <v>202.6</v>
       </c>
       <c r="C385" t="s">
         <v>7</v>
@@ -5860,7 +5782,7 @@
         <v>85</v>
       </c>
       <c r="B386">
-        <v>258</v>
+        <v>187.6</v>
       </c>
       <c r="C386" t="s">
         <v>7</v>
@@ -5874,7 +5796,7 @@
         <v>86</v>
       </c>
       <c r="B387">
-        <v>210</v>
+        <v>213.7</v>
       </c>
       <c r="C387" t="s">
         <v>7</v>
@@ -5888,7 +5810,7 @@
         <v>87</v>
       </c>
       <c r="B388">
-        <v>184</v>
+        <v>197.3</v>
       </c>
       <c r="C388" t="s">
         <v>7</v>
@@ -5902,7 +5824,7 @@
         <v>88</v>
       </c>
       <c r="B389">
-        <v>197</v>
+        <v>203.9</v>
       </c>
       <c r="C389" t="s">
         <v>7</v>
@@ -5916,7 +5838,7 @@
         <v>89</v>
       </c>
       <c r="B390">
-        <v>181</v>
+        <v>204.1</v>
       </c>
       <c r="C390" t="s">
         <v>7</v>
@@ -5930,7 +5852,7 @@
         <v>90</v>
       </c>
       <c r="B391">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="C391" t="s">
         <v>7</v>
@@ -5944,7 +5866,7 @@
         <v>91</v>
       </c>
       <c r="B392">
-        <v>212</v>
+        <v>215.6</v>
       </c>
       <c r="C392" t="s">
         <v>7</v>
@@ -5958,7 +5880,7 @@
         <v>92</v>
       </c>
       <c r="B393">
-        <v>210</v>
+        <v>207.3</v>
       </c>
       <c r="C393" t="s">
         <v>7</v>
@@ -5972,7 +5894,7 @@
         <v>93</v>
       </c>
       <c r="B394">
-        <v>247</v>
+        <v>203.8</v>
       </c>
       <c r="C394" t="s">
         <v>7</v>
@@ -5986,7 +5908,7 @@
         <v>94</v>
       </c>
       <c r="B395">
-        <v>185</v>
+        <v>197.1</v>
       </c>
       <c r="C395" t="s">
         <v>7</v>
@@ -6000,7 +5922,7 @@
         <v>95</v>
       </c>
       <c r="B396">
-        <v>233</v>
+        <v>181.9</v>
       </c>
       <c r="C396" t="s">
         <v>7</v>
@@ -6014,7 +5936,7 @@
         <v>96</v>
       </c>
       <c r="B397">
-        <v>261</v>
+        <v>229.5</v>
       </c>
       <c r="C397" t="s">
         <v>7</v>
@@ -6028,7 +5950,7 @@
         <v>97</v>
       </c>
       <c r="B398">
-        <v>234</v>
+        <v>196.7</v>
       </c>
       <c r="C398" t="s">
         <v>7</v>
@@ -6042,7 +5964,7 @@
         <v>98</v>
       </c>
       <c r="B399">
-        <v>225</v>
+        <v>196.1</v>
       </c>
       <c r="C399" t="s">
         <v>7</v>
@@ -6056,7 +5978,7 @@
         <v>99</v>
       </c>
       <c r="B400">
-        <v>229</v>
+        <v>202.2</v>
       </c>
       <c r="C400" t="s">
         <v>7</v>
@@ -6070,7 +5992,7 @@
         <v>100</v>
       </c>
       <c r="B401">
-        <v>190</v>
+        <v>190.1</v>
       </c>
       <c r="C401" t="s">
         <v>7</v>
@@ -6083,9 +6005,6 @@
       <c r="A402">
         <v>1</v>
       </c>
-      <c r="B402" s="1">
-        <v>151</v>
-      </c>
       <c r="C402" t="s">
         <v>8</v>
       </c>
@@ -6097,9 +6016,6 @@
       <c r="A403">
         <v>2</v>
       </c>
-      <c r="B403" s="1">
-        <v>157</v>
-      </c>
       <c r="C403" t="s">
         <v>8</v>
       </c>
@@ -6111,9 +6027,6 @@
       <c r="A404">
         <v>3</v>
       </c>
-      <c r="B404" s="1">
-        <v>150</v>
-      </c>
       <c r="C404" t="s">
         <v>8</v>
       </c>
@@ -6125,9 +6038,6 @@
       <c r="A405">
         <v>4</v>
       </c>
-      <c r="B405" s="1">
-        <v>144</v>
-      </c>
       <c r="C405" t="s">
         <v>8</v>
       </c>
@@ -6139,9 +6049,6 @@
       <c r="A406">
         <v>5</v>
       </c>
-      <c r="B406" s="1">
-        <v>175</v>
-      </c>
       <c r="C406" t="s">
         <v>8</v>
       </c>
@@ -6153,9 +6060,6 @@
       <c r="A407">
         <v>6</v>
       </c>
-      <c r="B407" s="1">
-        <v>180</v>
-      </c>
       <c r="C407" t="s">
         <v>8</v>
       </c>
@@ -6167,9 +6071,6 @@
       <c r="A408">
         <v>7</v>
       </c>
-      <c r="B408" s="1">
-        <v>135</v>
-      </c>
       <c r="C408" t="s">
         <v>8</v>
       </c>
@@ -6181,9 +6082,6 @@
       <c r="A409">
         <v>8</v>
       </c>
-      <c r="B409" s="1">
-        <v>166</v>
-      </c>
       <c r="C409" t="s">
         <v>8</v>
       </c>
@@ -6195,9 +6093,6 @@
       <c r="A410">
         <v>9</v>
       </c>
-      <c r="B410" s="1">
-        <v>162</v>
-      </c>
       <c r="C410" t="s">
         <v>8</v>
       </c>
@@ -6208,9 +6103,6 @@
     <row r="411" spans="1:4">
       <c r="A411">
         <v>10</v>
-      </c>
-      <c r="B411" s="1">
-        <v>146</v>
       </c>
       <c r="C411" t="s">
         <v>8</v>
@@ -6223,9 +6115,6 @@
       <c r="A412">
         <v>11</v>
       </c>
-      <c r="B412" s="1">
-        <v>158</v>
-      </c>
       <c r="C412" t="s">
         <v>8</v>
       </c>
@@ -6237,9 +6126,6 @@
       <c r="A413">
         <v>12</v>
       </c>
-      <c r="B413" s="1">
-        <v>127</v>
-      </c>
       <c r="C413" t="s">
         <v>8</v>
       </c>
@@ -6251,9 +6137,6 @@
       <c r="A414">
         <v>13</v>
       </c>
-      <c r="B414" s="1">
-        <v>135</v>
-      </c>
       <c r="C414" t="s">
         <v>8</v>
       </c>
@@ -6265,9 +6148,6 @@
       <c r="A415">
         <v>14</v>
       </c>
-      <c r="B415" s="1">
-        <v>130</v>
-      </c>
       <c r="C415" t="s">
         <v>8</v>
       </c>
@@ -6279,9 +6159,6 @@
       <c r="A416">
         <v>15</v>
       </c>
-      <c r="B416" s="1">
-        <v>171</v>
-      </c>
       <c r="C416" t="s">
         <v>8</v>
       </c>
@@ -6293,9 +6170,6 @@
       <c r="A417">
         <v>16</v>
       </c>
-      <c r="B417" s="1">
-        <v>165</v>
-      </c>
       <c r="C417" t="s">
         <v>8</v>
       </c>
@@ -6307,9 +6181,6 @@
       <c r="A418">
         <v>17</v>
       </c>
-      <c r="B418" s="1">
-        <v>131</v>
-      </c>
       <c r="C418" t="s">
         <v>8</v>
       </c>
@@ -6321,9 +6192,6 @@
       <c r="A419">
         <v>18</v>
       </c>
-      <c r="B419" s="1">
-        <v>138</v>
-      </c>
       <c r="C419" t="s">
         <v>8</v>
       </c>
@@ -6335,9 +6203,6 @@
       <c r="A420">
         <v>19</v>
       </c>
-      <c r="B420" s="1">
-        <v>158</v>
-      </c>
       <c r="C420" t="s">
         <v>8</v>
       </c>
@@ -6349,9 +6214,6 @@
       <c r="A421">
         <v>20</v>
       </c>
-      <c r="B421" s="1">
-        <v>150</v>
-      </c>
       <c r="C421" t="s">
         <v>8</v>
       </c>
@@ -6363,9 +6225,6 @@
       <c r="A422">
         <v>21</v>
       </c>
-      <c r="B422" s="1">
-        <v>156</v>
-      </c>
       <c r="C422" t="s">
         <v>8</v>
       </c>
@@ -6377,9 +6236,6 @@
       <c r="A423">
         <v>22</v>
       </c>
-      <c r="B423" s="1">
-        <v>143</v>
-      </c>
       <c r="C423" t="s">
         <v>8</v>
       </c>
@@ -6391,9 +6247,6 @@
       <c r="A424">
         <v>23</v>
       </c>
-      <c r="B424" s="1">
-        <v>114</v>
-      </c>
       <c r="C424" t="s">
         <v>8</v>
       </c>
@@ -6405,9 +6258,6 @@
       <c r="A425">
         <v>24</v>
       </c>
-      <c r="B425" s="1">
-        <v>108</v>
-      </c>
       <c r="C425" t="s">
         <v>8</v>
       </c>
@@ -6419,9 +6269,6 @@
       <c r="A426">
         <v>25</v>
       </c>
-      <c r="B426" s="1">
-        <v>140</v>
-      </c>
       <c r="C426" t="s">
         <v>8</v>
       </c>
@@ -6433,9 +6280,6 @@
       <c r="A427">
         <v>26</v>
       </c>
-      <c r="B427" s="1">
-        <v>138</v>
-      </c>
       <c r="C427" t="s">
         <v>8</v>
       </c>
@@ -6447,9 +6291,6 @@
       <c r="A428">
         <v>27</v>
       </c>
-      <c r="B428" s="1">
-        <v>107</v>
-      </c>
       <c r="C428" t="s">
         <v>8</v>
       </c>
@@ -6461,9 +6302,6 @@
       <c r="A429">
         <v>28</v>
       </c>
-      <c r="B429" s="1">
-        <v>107</v>
-      </c>
       <c r="C429" t="s">
         <v>8</v>
       </c>
@@ -6475,9 +6313,6 @@
       <c r="A430">
         <v>29</v>
       </c>
-      <c r="B430" s="1">
-        <v>173</v>
-      </c>
       <c r="C430" t="s">
         <v>8</v>
       </c>
@@ -6489,9 +6324,6 @@
       <c r="A431">
         <v>30</v>
       </c>
-      <c r="B431" s="1">
-        <v>121</v>
-      </c>
       <c r="C431" t="s">
         <v>8</v>
       </c>
@@ -6503,9 +6335,6 @@
       <c r="A432">
         <v>31</v>
       </c>
-      <c r="B432" s="1">
-        <v>125</v>
-      </c>
       <c r="C432" t="s">
         <v>8</v>
       </c>
@@ -6517,9 +6346,6 @@
       <c r="A433">
         <v>32</v>
       </c>
-      <c r="B433" s="1">
-        <v>145</v>
-      </c>
       <c r="C433" t="s">
         <v>8</v>
       </c>
@@ -6531,9 +6357,6 @@
       <c r="A434">
         <v>33</v>
       </c>
-      <c r="B434" s="1">
-        <v>135</v>
-      </c>
       <c r="C434" t="s">
         <v>8</v>
       </c>
@@ -6545,9 +6368,6 @@
       <c r="A435">
         <v>34</v>
       </c>
-      <c r="B435" s="1">
-        <v>150</v>
-      </c>
       <c r="C435" t="s">
         <v>8</v>
       </c>
@@ -6559,9 +6379,6 @@
       <c r="A436">
         <v>35</v>
       </c>
-      <c r="B436" s="1">
-        <v>182</v>
-      </c>
       <c r="C436" t="s">
         <v>8</v>
       </c>
@@ -6573,9 +6390,6 @@
       <c r="A437">
         <v>36</v>
       </c>
-      <c r="B437" s="1">
-        <v>112</v>
-      </c>
       <c r="C437" t="s">
         <v>8</v>
       </c>
@@ -6587,9 +6401,6 @@
       <c r="A438">
         <v>37</v>
       </c>
-      <c r="B438" s="1">
-        <v>128</v>
-      </c>
       <c r="C438" t="s">
         <v>8</v>
       </c>
@@ -6601,9 +6412,6 @@
       <c r="A439">
         <v>38</v>
       </c>
-      <c r="B439" s="1">
-        <v>115</v>
-      </c>
       <c r="C439" t="s">
         <v>8</v>
       </c>
@@ -6615,9 +6423,6 @@
       <c r="A440">
         <v>39</v>
       </c>
-      <c r="B440" s="1">
-        <v>132</v>
-      </c>
       <c r="C440" t="s">
         <v>8</v>
       </c>
@@ -6629,9 +6434,6 @@
       <c r="A441">
         <v>40</v>
       </c>
-      <c r="B441" s="1">
-        <v>149</v>
-      </c>
       <c r="C441" t="s">
         <v>8</v>
       </c>
@@ -6643,9 +6445,6 @@
       <c r="A442">
         <v>41</v>
       </c>
-      <c r="B442" s="1">
-        <v>151</v>
-      </c>
       <c r="C442" t="s">
         <v>8</v>
       </c>
@@ -6657,9 +6456,6 @@
       <c r="A443">
         <v>42</v>
       </c>
-      <c r="B443" s="1">
-        <v>132</v>
-      </c>
       <c r="C443" t="s">
         <v>8</v>
       </c>
@@ -6671,9 +6467,6 @@
       <c r="A444">
         <v>43</v>
       </c>
-      <c r="B444" s="1">
-        <v>109</v>
-      </c>
       <c r="C444" t="s">
         <v>8</v>
       </c>
@@ -6685,9 +6478,6 @@
       <c r="A445">
         <v>44</v>
       </c>
-      <c r="B445" s="1">
-        <v>143</v>
-      </c>
       <c r="C445" t="s">
         <v>8</v>
       </c>
@@ -6699,9 +6489,6 @@
       <c r="A446">
         <v>45</v>
       </c>
-      <c r="B446" s="1">
-        <v>151</v>
-      </c>
       <c r="C446" t="s">
         <v>8</v>
       </c>
@@ -6713,9 +6500,6 @@
       <c r="A447">
         <v>46</v>
       </c>
-      <c r="B447" s="1">
-        <v>151</v>
-      </c>
       <c r="C447" t="s">
         <v>8</v>
       </c>
@@ -6727,9 +6511,6 @@
       <c r="A448">
         <v>47</v>
       </c>
-      <c r="B448" s="1">
-        <v>169</v>
-      </c>
       <c r="C448" t="s">
         <v>8</v>
       </c>
@@ -6741,9 +6522,6 @@
       <c r="A449">
         <v>48</v>
       </c>
-      <c r="B449" s="1">
-        <v>161</v>
-      </c>
       <c r="C449" t="s">
         <v>8</v>
       </c>
@@ -6755,9 +6533,6 @@
       <c r="A450">
         <v>49</v>
       </c>
-      <c r="B450" s="1">
-        <v>125</v>
-      </c>
       <c r="C450" t="s">
         <v>8</v>
       </c>
@@ -6769,9 +6544,6 @@
       <c r="A451">
         <v>50</v>
       </c>
-      <c r="B451" s="1">
-        <v>127</v>
-      </c>
       <c r="C451" t="s">
         <v>8</v>
       </c>
@@ -6783,9 +6555,6 @@
       <c r="A452">
         <v>51</v>
       </c>
-      <c r="B452" s="1">
-        <v>147</v>
-      </c>
       <c r="C452" t="s">
         <v>8</v>
       </c>
@@ -6797,9 +6566,6 @@
       <c r="A453">
         <v>52</v>
       </c>
-      <c r="B453" s="1">
-        <v>146</v>
-      </c>
       <c r="C453" t="s">
         <v>8</v>
       </c>
@@ -6811,9 +6577,6 @@
       <c r="A454">
         <v>53</v>
       </c>
-      <c r="B454" s="1">
-        <v>158</v>
-      </c>
       <c r="C454" t="s">
         <v>8</v>
       </c>
@@ -6825,9 +6588,6 @@
       <c r="A455">
         <v>54</v>
       </c>
-      <c r="B455" s="1">
-        <v>112</v>
-      </c>
       <c r="C455" t="s">
         <v>8</v>
       </c>
@@ -6839,9 +6599,6 @@
       <c r="A456">
         <v>55</v>
       </c>
-      <c r="B456" s="1">
-        <v>155</v>
-      </c>
       <c r="C456" t="s">
         <v>8</v>
       </c>
@@ -6853,9 +6610,6 @@
       <c r="A457">
         <v>56</v>
       </c>
-      <c r="B457" s="1">
-        <v>124</v>
-      </c>
       <c r="C457" t="s">
         <v>8</v>
       </c>
@@ -6867,9 +6621,6 @@
       <c r="A458">
         <v>57</v>
       </c>
-      <c r="B458" s="1">
-        <v>156</v>
-      </c>
       <c r="C458" t="s">
         <v>8</v>
       </c>
@@ -6881,9 +6632,6 @@
       <c r="A459">
         <v>58</v>
       </c>
-      <c r="B459" s="1">
-        <v>175</v>
-      </c>
       <c r="C459" t="s">
         <v>8</v>
       </c>
@@ -6895,9 +6643,6 @@
       <c r="A460">
         <v>59</v>
       </c>
-      <c r="B460" s="1">
-        <v>157</v>
-      </c>
       <c r="C460" t="s">
         <v>8</v>
       </c>
@@ -6909,9 +6654,6 @@
       <c r="A461">
         <v>60</v>
       </c>
-      <c r="B461" s="1">
-        <v>162</v>
-      </c>
       <c r="C461" t="s">
         <v>8</v>
       </c>
@@ -6923,9 +6665,6 @@
       <c r="A462">
         <v>61</v>
       </c>
-      <c r="B462" s="1">
-        <v>150</v>
-      </c>
       <c r="C462" t="s">
         <v>8</v>
       </c>
@@ -6937,9 +6676,6 @@
       <c r="A463">
         <v>62</v>
       </c>
-      <c r="B463" s="1">
-        <v>174</v>
-      </c>
       <c r="C463" t="s">
         <v>8</v>
       </c>
@@ -6951,9 +6687,6 @@
       <c r="A464">
         <v>63</v>
       </c>
-      <c r="B464" s="1">
-        <v>134</v>
-      </c>
       <c r="C464" t="s">
         <v>8</v>
       </c>
@@ -6965,9 +6698,6 @@
       <c r="A465">
         <v>64</v>
       </c>
-      <c r="B465" s="1">
-        <v>180</v>
-      </c>
       <c r="C465" t="s">
         <v>8</v>
       </c>
@@ -6979,9 +6709,6 @@
       <c r="A466">
         <v>65</v>
       </c>
-      <c r="B466" s="1">
-        <v>182</v>
-      </c>
       <c r="C466" t="s">
         <v>8</v>
       </c>
@@ -6993,9 +6720,6 @@
       <c r="A467">
         <v>66</v>
       </c>
-      <c r="B467" s="1">
-        <v>159</v>
-      </c>
       <c r="C467" t="s">
         <v>8</v>
       </c>
@@ -7007,9 +6731,6 @@
       <c r="A468">
         <v>67</v>
       </c>
-      <c r="B468" s="1">
-        <v>163</v>
-      </c>
       <c r="C468" t="s">
         <v>8</v>
       </c>
@@ -7021,9 +6742,6 @@
       <c r="A469">
         <v>68</v>
       </c>
-      <c r="B469" s="1">
-        <v>181</v>
-      </c>
       <c r="C469" t="s">
         <v>8</v>
       </c>
@@ -7035,9 +6753,6 @@
       <c r="A470">
         <v>69</v>
       </c>
-      <c r="B470" s="1">
-        <v>127</v>
-      </c>
       <c r="C470" t="s">
         <v>8</v>
       </c>
@@ -7049,9 +6764,6 @@
       <c r="A471">
         <v>70</v>
       </c>
-      <c r="B471" s="1">
-        <v>161</v>
-      </c>
       <c r="C471" t="s">
         <v>8</v>
       </c>
@@ -7063,9 +6775,6 @@
       <c r="A472">
         <v>71</v>
       </c>
-      <c r="B472" s="1">
-        <v>142</v>
-      </c>
       <c r="C472" t="s">
         <v>8</v>
       </c>
@@ -7077,9 +6786,6 @@
       <c r="A473">
         <v>72</v>
       </c>
-      <c r="B473" s="1">
-        <v>149</v>
-      </c>
       <c r="C473" t="s">
         <v>8</v>
       </c>
@@ -7091,9 +6797,6 @@
       <c r="A474">
         <v>73</v>
       </c>
-      <c r="B474" s="1">
-        <v>140</v>
-      </c>
       <c r="C474" t="s">
         <v>8</v>
       </c>
@@ -7105,9 +6808,6 @@
       <c r="A475">
         <v>74</v>
       </c>
-      <c r="B475" s="1">
-        <v>161</v>
-      </c>
       <c r="C475" t="s">
         <v>8</v>
       </c>
@@ -7119,9 +6819,6 @@
       <c r="A476">
         <v>75</v>
       </c>
-      <c r="B476" s="1">
-        <v>151</v>
-      </c>
       <c r="C476" t="s">
         <v>8</v>
       </c>
@@ -7133,9 +6830,6 @@
       <c r="A477">
         <v>76</v>
       </c>
-      <c r="B477" s="1">
-        <v>187</v>
-      </c>
       <c r="C477" t="s">
         <v>8</v>
       </c>
@@ -7147,9 +6841,6 @@
       <c r="A478">
         <v>77</v>
       </c>
-      <c r="B478" s="1">
-        <v>157</v>
-      </c>
       <c r="C478" t="s">
         <v>8</v>
       </c>
@@ -7161,9 +6852,6 @@
       <c r="A479">
         <v>78</v>
       </c>
-      <c r="B479" s="1">
-        <v>170</v>
-      </c>
       <c r="C479" t="s">
         <v>8</v>
       </c>
@@ -7175,9 +6863,6 @@
       <c r="A480">
         <v>79</v>
       </c>
-      <c r="B480" s="1">
-        <v>145</v>
-      </c>
       <c r="C480" t="s">
         <v>8</v>
       </c>
@@ -7189,9 +6874,6 @@
       <c r="A481">
         <v>80</v>
       </c>
-      <c r="B481" s="1">
-        <v>156</v>
-      </c>
       <c r="C481" t="s">
         <v>8</v>
       </c>
@@ -7203,9 +6885,6 @@
       <c r="A482">
         <v>81</v>
       </c>
-      <c r="B482" s="1">
-        <v>174</v>
-      </c>
       <c r="C482" t="s">
         <v>8</v>
       </c>
@@ -7217,9 +6896,6 @@
       <c r="A483">
         <v>82</v>
       </c>
-      <c r="B483" s="1">
-        <v>153</v>
-      </c>
       <c r="C483" t="s">
         <v>8</v>
       </c>
@@ -7231,9 +6907,6 @@
       <c r="A484">
         <v>83</v>
       </c>
-      <c r="B484" s="1">
-        <v>161</v>
-      </c>
       <c r="C484" t="s">
         <v>8</v>
       </c>
@@ -7245,9 +6918,6 @@
       <c r="A485">
         <v>84</v>
       </c>
-      <c r="B485" s="1">
-        <v>135</v>
-      </c>
       <c r="C485" t="s">
         <v>8</v>
       </c>
@@ -7259,9 +6929,6 @@
       <c r="A486">
         <v>85</v>
       </c>
-      <c r="B486" s="1">
-        <v>198</v>
-      </c>
       <c r="C486" t="s">
         <v>8</v>
       </c>
@@ -7273,9 +6940,6 @@
       <c r="A487">
         <v>86</v>
       </c>
-      <c r="B487" s="1">
-        <v>146</v>
-      </c>
       <c r="C487" t="s">
         <v>8</v>
       </c>
@@ -7287,9 +6951,6 @@
       <c r="A488">
         <v>87</v>
       </c>
-      <c r="B488" s="1">
-        <v>122</v>
-      </c>
       <c r="C488" t="s">
         <v>8</v>
       </c>
@@ -7301,9 +6962,6 @@
       <c r="A489">
         <v>88</v>
       </c>
-      <c r="B489" s="1">
-        <v>140</v>
-      </c>
       <c r="C489" t="s">
         <v>8</v>
       </c>
@@ -7315,9 +6973,6 @@
       <c r="A490">
         <v>89</v>
       </c>
-      <c r="B490" s="1">
-        <v>126</v>
-      </c>
       <c r="C490" t="s">
         <v>8</v>
       </c>
@@ -7329,9 +6984,6 @@
       <c r="A491">
         <v>90</v>
       </c>
-      <c r="B491" s="1">
-        <v>144</v>
-      </c>
       <c r="C491" t="s">
         <v>8</v>
       </c>
@@ -7343,9 +6995,6 @@
       <c r="A492">
         <v>91</v>
       </c>
-      <c r="B492" s="1">
-        <v>143</v>
-      </c>
       <c r="C492" t="s">
         <v>8</v>
       </c>
@@ -7357,9 +7006,6 @@
       <c r="A493">
         <v>92</v>
       </c>
-      <c r="B493" s="1">
-        <v>161</v>
-      </c>
       <c r="C493" t="s">
         <v>8</v>
       </c>
@@ -7371,9 +7017,6 @@
       <c r="A494">
         <v>93</v>
       </c>
-      <c r="B494" s="1">
-        <v>183</v>
-      </c>
       <c r="C494" t="s">
         <v>8</v>
       </c>
@@ -7385,9 +7028,6 @@
       <c r="A495">
         <v>94</v>
       </c>
-      <c r="B495" s="1">
-        <v>145</v>
-      </c>
       <c r="C495" t="s">
         <v>8</v>
       </c>
@@ -7399,9 +7039,6 @@
       <c r="A496">
         <v>95</v>
       </c>
-      <c r="B496" s="1">
-        <v>153</v>
-      </c>
       <c r="C496" t="s">
         <v>8</v>
       </c>
@@ -7413,9 +7050,6 @@
       <c r="A497">
         <v>96</v>
       </c>
-      <c r="B497" s="1">
-        <v>190</v>
-      </c>
       <c r="C497" t="s">
         <v>8</v>
       </c>
@@ -7427,9 +7061,6 @@
       <c r="A498">
         <v>97</v>
       </c>
-      <c r="B498" s="1">
-        <v>172</v>
-      </c>
       <c r="C498" t="s">
         <v>8</v>
       </c>
@@ -7441,9 +7072,6 @@
       <c r="A499">
         <v>98</v>
       </c>
-      <c r="B499" s="1">
-        <v>147</v>
-      </c>
       <c r="C499" t="s">
         <v>8</v>
       </c>
@@ -7455,9 +7083,6 @@
       <c r="A500">
         <v>99</v>
       </c>
-      <c r="B500" s="1">
-        <v>149</v>
-      </c>
       <c r="C500" t="s">
         <v>8</v>
       </c>
@@ -7469,9 +7094,6 @@
       <c r="A501">
         <v>100</v>
       </c>
-      <c r="B501" s="1">
-        <v>143</v>
-      </c>
       <c r="C501" t="s">
         <v>8</v>
       </c>
@@ -7483,9 +7105,6 @@
       <c r="A502">
         <v>1</v>
       </c>
-      <c r="B502" s="1">
-        <v>144</v>
-      </c>
       <c r="C502" t="s">
         <v>9</v>
       </c>
@@ -7497,9 +7116,6 @@
       <c r="A503">
         <v>2</v>
       </c>
-      <c r="B503" s="1">
-        <v>149</v>
-      </c>
       <c r="C503" t="s">
         <v>9</v>
       </c>
@@ -7511,9 +7127,6 @@
       <c r="A504">
         <v>3</v>
       </c>
-      <c r="B504" s="1">
-        <v>149</v>
-      </c>
       <c r="C504" t="s">
         <v>9</v>
       </c>
@@ -7525,9 +7138,6 @@
       <c r="A505">
         <v>4</v>
       </c>
-      <c r="B505" s="1">
-        <v>137</v>
-      </c>
       <c r="C505" t="s">
         <v>9</v>
       </c>
@@ -7539,9 +7149,6 @@
       <c r="A506">
         <v>5</v>
       </c>
-      <c r="B506" s="1">
-        <v>158</v>
-      </c>
       <c r="C506" t="s">
         <v>9</v>
       </c>
@@ -7553,9 +7160,6 @@
       <c r="A507">
         <v>6</v>
       </c>
-      <c r="B507" s="1">
-        <v>184</v>
-      </c>
       <c r="C507" t="s">
         <v>9</v>
       </c>
@@ -7567,9 +7171,6 @@
       <c r="A508">
         <v>7</v>
       </c>
-      <c r="B508" s="1">
-        <v>132</v>
-      </c>
       <c r="C508" t="s">
         <v>9</v>
       </c>
@@ -7581,9 +7182,6 @@
       <c r="A509">
         <v>8</v>
       </c>
-      <c r="B509" s="1">
-        <v>169</v>
-      </c>
       <c r="C509" t="s">
         <v>9</v>
       </c>
@@ -7595,9 +7193,6 @@
       <c r="A510">
         <v>9</v>
       </c>
-      <c r="B510" s="1">
-        <v>161</v>
-      </c>
       <c r="C510" t="s">
         <v>9</v>
       </c>
@@ -7608,9 +7203,6 @@
     <row r="511" spans="1:4">
       <c r="A511">
         <v>10</v>
-      </c>
-      <c r="B511" s="1">
-        <v>140</v>
       </c>
       <c r="C511" t="s">
         <v>9</v>
@@ -7623,9 +7215,6 @@
       <c r="A512">
         <v>11</v>
       </c>
-      <c r="B512" s="1">
-        <v>158</v>
-      </c>
       <c r="C512" t="s">
         <v>9</v>
       </c>
@@ -7637,9 +7226,6 @@
       <c r="A513">
         <v>12</v>
       </c>
-      <c r="B513" s="1">
-        <v>129</v>
-      </c>
       <c r="C513" t="s">
         <v>9</v>
       </c>
@@ -7651,9 +7237,6 @@
       <c r="A514">
         <v>13</v>
       </c>
-      <c r="B514" s="1">
-        <v>130</v>
-      </c>
       <c r="C514" t="s">
         <v>9</v>
       </c>
@@ -7665,9 +7248,6 @@
       <c r="A515">
         <v>14</v>
       </c>
-      <c r="B515" s="1">
-        <v>127</v>
-      </c>
       <c r="C515" t="s">
         <v>9</v>
       </c>
@@ -7679,9 +7259,6 @@
       <c r="A516">
         <v>15</v>
       </c>
-      <c r="B516" s="1">
-        <v>167</v>
-      </c>
       <c r="C516" t="s">
         <v>9</v>
       </c>
@@ -7693,9 +7270,6 @@
       <c r="A517">
         <v>16</v>
       </c>
-      <c r="B517" s="1">
-        <v>157</v>
-      </c>
       <c r="C517" t="s">
         <v>9</v>
       </c>
@@ -7707,9 +7281,6 @@
       <c r="A518">
         <v>17</v>
       </c>
-      <c r="B518" s="1">
-        <v>130</v>
-      </c>
       <c r="C518" t="s">
         <v>9</v>
       </c>
@@ -7721,9 +7292,6 @@
       <c r="A519">
         <v>18</v>
       </c>
-      <c r="B519" s="1">
-        <v>127</v>
-      </c>
       <c r="C519" t="s">
         <v>9</v>
       </c>
@@ -7735,9 +7303,6 @@
       <c r="A520">
         <v>19</v>
       </c>
-      <c r="B520" s="1">
-        <v>160</v>
-      </c>
       <c r="C520" t="s">
         <v>9</v>
       </c>
@@ -7749,9 +7314,6 @@
       <c r="A521">
         <v>20</v>
       </c>
-      <c r="B521" s="1">
-        <v>157</v>
-      </c>
       <c r="C521" t="s">
         <v>9</v>
       </c>
@@ -7763,9 +7325,6 @@
       <c r="A522">
         <v>21</v>
       </c>
-      <c r="B522" s="1">
-        <v>153</v>
-      </c>
       <c r="C522" t="s">
         <v>9</v>
       </c>
@@ -7777,9 +7336,6 @@
       <c r="A523">
         <v>22</v>
       </c>
-      <c r="B523" s="1">
-        <v>146</v>
-      </c>
       <c r="C523" t="s">
         <v>9</v>
       </c>
@@ -7791,9 +7347,6 @@
       <c r="A524">
         <v>23</v>
       </c>
-      <c r="B524" s="1">
-        <v>107</v>
-      </c>
       <c r="C524" t="s">
         <v>9</v>
       </c>
@@ -7805,9 +7358,6 @@
       <c r="A525">
         <v>24</v>
       </c>
-      <c r="B525" s="1">
-        <v>97</v>
-      </c>
       <c r="C525" t="s">
         <v>9</v>
       </c>
@@ -7819,9 +7369,6 @@
       <c r="A526">
         <v>25</v>
       </c>
-      <c r="B526" s="1">
-        <v>145</v>
-      </c>
       <c r="C526" t="s">
         <v>9</v>
       </c>
@@ -7833,9 +7380,6 @@
       <c r="A527">
         <v>26</v>
       </c>
-      <c r="B527" s="1">
-        <v>138</v>
-      </c>
       <c r="C527" t="s">
         <v>9</v>
       </c>
@@ -7847,9 +7391,6 @@
       <c r="A528">
         <v>27</v>
       </c>
-      <c r="B528" s="1">
-        <v>119</v>
-      </c>
       <c r="C528" t="s">
         <v>9</v>
       </c>
@@ -7861,9 +7402,6 @@
       <c r="A529">
         <v>28</v>
       </c>
-      <c r="B529" s="1">
-        <v>102</v>
-      </c>
       <c r="C529" t="s">
         <v>9</v>
       </c>
@@ -7875,9 +7413,6 @@
       <c r="A530">
         <v>29</v>
       </c>
-      <c r="B530" s="1">
-        <v>173</v>
-      </c>
       <c r="C530" t="s">
         <v>9</v>
       </c>
@@ -7889,9 +7424,6 @@
       <c r="A531">
         <v>30</v>
       </c>
-      <c r="B531" s="1">
-        <v>111</v>
-      </c>
       <c r="C531" t="s">
         <v>9</v>
       </c>
@@ -7903,9 +7435,6 @@
       <c r="A532">
         <v>31</v>
       </c>
-      <c r="B532" s="1">
-        <v>130</v>
-      </c>
       <c r="C532" t="s">
         <v>9</v>
       </c>
@@ -7917,9 +7446,6 @@
       <c r="A533">
         <v>32</v>
       </c>
-      <c r="B533" s="1">
-        <v>141</v>
-      </c>
       <c r="C533" t="s">
         <v>9</v>
       </c>
@@ -7931,9 +7457,6 @@
       <c r="A534">
         <v>33</v>
       </c>
-      <c r="B534" s="1">
-        <v>127</v>
-      </c>
       <c r="C534" t="s">
         <v>9</v>
       </c>
@@ -7945,9 +7468,6 @@
       <c r="A535">
         <v>34</v>
       </c>
-      <c r="B535" s="1">
-        <v>138</v>
-      </c>
       <c r="C535" t="s">
         <v>9</v>
       </c>
@@ -7959,9 +7479,6 @@
       <c r="A536">
         <v>35</v>
       </c>
-      <c r="B536" s="1">
-        <v>199</v>
-      </c>
       <c r="C536" t="s">
         <v>9</v>
       </c>
@@ -7973,9 +7490,6 @@
       <c r="A537">
         <v>36</v>
       </c>
-      <c r="B537" s="1">
-        <v>114</v>
-      </c>
       <c r="C537" t="s">
         <v>9</v>
       </c>
@@ -7987,9 +7501,6 @@
       <c r="A538">
         <v>37</v>
       </c>
-      <c r="B538" s="1">
-        <v>119</v>
-      </c>
       <c r="C538" t="s">
         <v>9</v>
       </c>
@@ -8001,9 +7512,6 @@
       <c r="A539">
         <v>38</v>
       </c>
-      <c r="B539" s="1">
-        <v>110</v>
-      </c>
       <c r="C539" t="s">
         <v>9</v>
       </c>
@@ -8015,9 +7523,6 @@
       <c r="A540">
         <v>39</v>
       </c>
-      <c r="B540" s="1">
-        <v>128</v>
-      </c>
       <c r="C540" t="s">
         <v>9</v>
       </c>
@@ -8029,9 +7534,6 @@
       <c r="A541">
         <v>40</v>
       </c>
-      <c r="B541" s="1">
-        <v>171</v>
-      </c>
       <c r="C541" t="s">
         <v>9</v>
       </c>
@@ -8043,9 +7545,6 @@
       <c r="A542">
         <v>41</v>
       </c>
-      <c r="B542" s="1">
-        <v>139</v>
-      </c>
       <c r="C542" t="s">
         <v>9</v>
       </c>
@@ -8057,9 +7556,6 @@
       <c r="A543">
         <v>42</v>
       </c>
-      <c r="B543" s="1">
-        <v>129</v>
-      </c>
       <c r="C543" t="s">
         <v>9</v>
       </c>
@@ -8071,9 +7567,6 @@
       <c r="A544">
         <v>43</v>
       </c>
-      <c r="B544" s="1">
-        <v>145</v>
-      </c>
       <c r="C544" t="s">
         <v>9</v>
       </c>
@@ -8085,9 +7578,6 @@
       <c r="A545">
         <v>44</v>
       </c>
-      <c r="B545" s="1">
-        <v>143</v>
-      </c>
       <c r="C545" t="s">
         <v>9</v>
       </c>
@@ -8099,9 +7589,6 @@
       <c r="A546">
         <v>45</v>
       </c>
-      <c r="B546" s="1">
-        <v>145</v>
-      </c>
       <c r="C546" t="s">
         <v>9</v>
       </c>
@@ -8113,9 +7600,6 @@
       <c r="A547">
         <v>46</v>
       </c>
-      <c r="B547" s="1">
-        <v>140</v>
-      </c>
       <c r="C547" t="s">
         <v>9</v>
       </c>
@@ -8127,9 +7611,6 @@
       <c r="A548">
         <v>47</v>
       </c>
-      <c r="B548" s="1">
-        <v>170</v>
-      </c>
       <c r="C548" t="s">
         <v>9</v>
       </c>
@@ -8141,9 +7622,6 @@
       <c r="A549">
         <v>48</v>
       </c>
-      <c r="B549" s="1">
-        <v>151</v>
-      </c>
       <c r="C549" t="s">
         <v>9</v>
       </c>
@@ -8155,9 +7633,6 @@
       <c r="A550">
         <v>49</v>
       </c>
-      <c r="B550" s="1">
-        <v>141</v>
-      </c>
       <c r="C550" t="s">
         <v>9</v>
       </c>
@@ -8169,9 +7644,6 @@
       <c r="A551">
         <v>50</v>
       </c>
-      <c r="B551" s="1">
-        <v>122</v>
-      </c>
       <c r="C551" t="s">
         <v>9</v>
       </c>
@@ -8183,9 +7655,6 @@
       <c r="A552">
         <v>51</v>
       </c>
-      <c r="B552" s="1">
-        <v>147</v>
-      </c>
       <c r="C552" t="s">
         <v>9</v>
       </c>
@@ -8197,9 +7666,6 @@
       <c r="A553">
         <v>52</v>
       </c>
-      <c r="B553" s="1">
-        <v>146</v>
-      </c>
       <c r="C553" t="s">
         <v>9</v>
       </c>
@@ -8211,9 +7677,6 @@
       <c r="A554">
         <v>53</v>
       </c>
-      <c r="B554" s="1">
-        <v>161</v>
-      </c>
       <c r="C554" t="s">
         <v>9</v>
       </c>
@@ -8225,9 +7688,6 @@
       <c r="A555">
         <v>54</v>
       </c>
-      <c r="B555" s="1">
-        <v>113</v>
-      </c>
       <c r="C555" t="s">
         <v>9</v>
       </c>
@@ -8239,9 +7699,6 @@
       <c r="A556">
         <v>55</v>
       </c>
-      <c r="B556" s="1">
-        <v>152</v>
-      </c>
       <c r="C556" t="s">
         <v>9</v>
       </c>
@@ -8253,9 +7710,6 @@
       <c r="A557">
         <v>56</v>
       </c>
-      <c r="B557" s="1">
-        <v>115</v>
-      </c>
       <c r="C557" t="s">
         <v>9</v>
       </c>
@@ -8267,9 +7721,6 @@
       <c r="A558">
         <v>57</v>
       </c>
-      <c r="B558" s="1">
-        <v>152</v>
-      </c>
       <c r="C558" t="s">
         <v>9</v>
       </c>
@@ -8281,9 +7732,6 @@
       <c r="A559">
         <v>58</v>
       </c>
-      <c r="B559" s="1">
-        <v>210</v>
-      </c>
       <c r="C559" t="s">
         <v>9</v>
       </c>
@@ -8295,9 +7743,6 @@
       <c r="A560">
         <v>59</v>
       </c>
-      <c r="B560" s="1">
-        <v>158</v>
-      </c>
       <c r="C560" t="s">
         <v>9</v>
       </c>
@@ -8309,9 +7754,6 @@
       <c r="A561">
         <v>60</v>
       </c>
-      <c r="B561" s="1">
-        <v>152</v>
-      </c>
       <c r="C561" t="s">
         <v>9</v>
       </c>
@@ -8323,9 +7765,6 @@
       <c r="A562">
         <v>61</v>
       </c>
-      <c r="B562" s="1">
-        <v>172</v>
-      </c>
       <c r="C562" t="s">
         <v>9</v>
       </c>
@@ -8337,9 +7776,6 @@
       <c r="A563">
         <v>62</v>
       </c>
-      <c r="B563" s="1">
-        <v>173</v>
-      </c>
       <c r="C563" t="s">
         <v>9</v>
       </c>
@@ -8351,9 +7787,6 @@
       <c r="A564">
         <v>63</v>
       </c>
-      <c r="B564" s="1">
-        <v>129</v>
-      </c>
       <c r="C564" t="s">
         <v>9</v>
       </c>
@@ -8365,9 +7798,6 @@
       <c r="A565">
         <v>64</v>
       </c>
-      <c r="B565" s="1">
-        <v>174</v>
-      </c>
       <c r="C565" t="s">
         <v>9</v>
       </c>
@@ -8379,9 +7809,6 @@
       <c r="A566">
         <v>65</v>
       </c>
-      <c r="B566" s="1">
-        <v>168</v>
-      </c>
       <c r="C566" t="s">
         <v>9</v>
       </c>
@@ -8393,9 +7820,6 @@
       <c r="A567">
         <v>66</v>
       </c>
-      <c r="B567" s="1">
-        <v>161</v>
-      </c>
       <c r="C567" t="s">
         <v>9</v>
       </c>
@@ -8407,9 +7831,6 @@
       <c r="A568">
         <v>67</v>
       </c>
-      <c r="B568" s="1">
-        <v>161</v>
-      </c>
       <c r="C568" t="s">
         <v>9</v>
       </c>
@@ -8421,9 +7842,6 @@
       <c r="A569">
         <v>68</v>
       </c>
-      <c r="B569" s="1">
-        <v>165</v>
-      </c>
       <c r="C569" t="s">
         <v>9</v>
       </c>
@@ -8435,9 +7853,6 @@
       <c r="A570">
         <v>69</v>
       </c>
-      <c r="B570" s="1">
-        <v>162</v>
-      </c>
       <c r="C570" t="s">
         <v>9</v>
       </c>
@@ -8449,9 +7864,6 @@
       <c r="A571">
         <v>70</v>
       </c>
-      <c r="B571" s="1">
-        <v>222</v>
-      </c>
       <c r="C571" t="s">
         <v>9</v>
       </c>
@@ -8463,9 +7875,6 @@
       <c r="A572">
         <v>71</v>
       </c>
-      <c r="B572" s="1">
-        <v>141</v>
-      </c>
       <c r="C572" t="s">
         <v>9</v>
       </c>
@@ -8477,9 +7886,6 @@
       <c r="A573">
         <v>72</v>
       </c>
-      <c r="B573" s="1">
-        <v>148</v>
-      </c>
       <c r="C573" t="s">
         <v>9</v>
       </c>
@@ -8491,9 +7897,6 @@
       <c r="A574">
         <v>73</v>
       </c>
-      <c r="B574" s="1">
-        <v>136</v>
-      </c>
       <c r="C574" t="s">
         <v>9</v>
       </c>
@@ -8505,9 +7908,6 @@
       <c r="A575">
         <v>74</v>
       </c>
-      <c r="B575" s="1">
-        <v>164</v>
-      </c>
       <c r="C575" t="s">
         <v>9</v>
       </c>
@@ -8519,9 +7919,6 @@
       <c r="A576">
         <v>75</v>
       </c>
-      <c r="B576" s="1">
-        <v>150</v>
-      </c>
       <c r="C576" t="s">
         <v>9</v>
       </c>
@@ -8533,9 +7930,6 @@
       <c r="A577">
         <v>76</v>
       </c>
-      <c r="B577" s="1">
-        <v>181</v>
-      </c>
       <c r="C577" t="s">
         <v>9</v>
       </c>
@@ -8547,9 +7941,6 @@
       <c r="A578">
         <v>77</v>
       </c>
-      <c r="B578" s="1">
-        <v>204</v>
-      </c>
       <c r="C578" t="s">
         <v>9</v>
       </c>
@@ -8561,9 +7952,6 @@
       <c r="A579">
         <v>78</v>
       </c>
-      <c r="B579" s="1">
-        <v>157</v>
-      </c>
       <c r="C579" t="s">
         <v>9</v>
       </c>
@@ -8575,9 +7963,6 @@
       <c r="A580">
         <v>79</v>
       </c>
-      <c r="B580" s="1">
-        <v>137</v>
-      </c>
       <c r="C580" t="s">
         <v>9</v>
       </c>
@@ -8589,9 +7974,6 @@
       <c r="A581">
         <v>80</v>
       </c>
-      <c r="B581" s="1">
-        <v>156</v>
-      </c>
       <c r="C581" t="s">
         <v>9</v>
       </c>
@@ -8603,9 +7985,6 @@
       <c r="A582">
         <v>81</v>
       </c>
-      <c r="B582" s="1">
-        <v>170</v>
-      </c>
       <c r="C582" t="s">
         <v>9</v>
       </c>
@@ -8617,9 +7996,6 @@
       <c r="A583">
         <v>82</v>
       </c>
-      <c r="B583" s="1">
-        <v>141</v>
-      </c>
       <c r="C583" t="s">
         <v>9</v>
       </c>
@@ -8631,9 +8007,6 @@
       <c r="A584">
         <v>83</v>
       </c>
-      <c r="B584" s="1">
-        <v>156</v>
-      </c>
       <c r="C584" t="s">
         <v>9</v>
       </c>
@@ -8645,9 +8018,6 @@
       <c r="A585">
         <v>84</v>
       </c>
-      <c r="B585" s="1">
-        <v>201</v>
-      </c>
       <c r="C585" t="s">
         <v>9</v>
       </c>
@@ -8659,9 +8029,6 @@
       <c r="A586">
         <v>85</v>
       </c>
-      <c r="B586" s="1">
-        <v>180</v>
-      </c>
       <c r="C586" t="s">
         <v>9</v>
       </c>
@@ -8673,9 +8040,6 @@
       <c r="A587">
         <v>86</v>
       </c>
-      <c r="B587" s="1">
-        <v>138</v>
-      </c>
       <c r="C587" t="s">
         <v>9</v>
       </c>
@@ -8687,9 +8051,6 @@
       <c r="A588">
         <v>87</v>
       </c>
-      <c r="B588" s="1">
-        <v>120</v>
-      </c>
       <c r="C588" t="s">
         <v>9</v>
       </c>
@@ -8701,9 +8062,6 @@
       <c r="A589">
         <v>88</v>
       </c>
-      <c r="B589" s="1">
-        <v>140</v>
-      </c>
       <c r="C589" t="s">
         <v>9</v>
       </c>
@@ -8715,9 +8073,6 @@
       <c r="A590">
         <v>89</v>
       </c>
-      <c r="B590" s="1">
-        <v>126</v>
-      </c>
       <c r="C590" t="s">
         <v>9</v>
       </c>
@@ -8729,9 +8084,6 @@
       <c r="A591">
         <v>90</v>
       </c>
-      <c r="B591" s="1">
-        <v>144</v>
-      </c>
       <c r="C591" t="s">
         <v>9</v>
       </c>
@@ -8743,9 +8095,6 @@
       <c r="A592">
         <v>91</v>
       </c>
-      <c r="B592" s="1">
-        <v>139</v>
-      </c>
       <c r="C592" t="s">
         <v>9</v>
       </c>
@@ -8757,9 +8106,6 @@
       <c r="A593">
         <v>92</v>
       </c>
-      <c r="B593" s="1">
-        <v>159</v>
-      </c>
       <c r="C593" t="s">
         <v>9</v>
       </c>
@@ -8771,9 +8117,6 @@
       <c r="A594">
         <v>93</v>
       </c>
-      <c r="B594" s="1">
-        <v>189</v>
-      </c>
       <c r="C594" t="s">
         <v>9</v>
       </c>
@@ -8785,9 +8128,6 @@
       <c r="A595">
         <v>94</v>
       </c>
-      <c r="B595" s="1">
-        <v>126</v>
-      </c>
       <c r="C595" t="s">
         <v>9</v>
       </c>
@@ -8799,9 +8139,6 @@
       <c r="A596">
         <v>95</v>
       </c>
-      <c r="B596" s="1">
-        <v>169</v>
-      </c>
       <c r="C596" t="s">
         <v>9</v>
       </c>
@@ -8813,9 +8150,6 @@
       <c r="A597">
         <v>96</v>
       </c>
-      <c r="B597" s="1">
-        <v>183</v>
-      </c>
       <c r="C597" t="s">
         <v>9</v>
       </c>
@@ -8827,9 +8161,6 @@
       <c r="A598">
         <v>97</v>
       </c>
-      <c r="B598" s="1">
-        <v>220</v>
-      </c>
       <c r="C598" t="s">
         <v>9</v>
       </c>
@@ -8841,9 +8172,6 @@
       <c r="A599">
         <v>98</v>
       </c>
-      <c r="B599" s="1">
-        <v>156</v>
-      </c>
       <c r="C599" t="s">
         <v>9</v>
       </c>
@@ -8855,9 +8183,6 @@
       <c r="A600">
         <v>99</v>
       </c>
-      <c r="B600" s="1">
-        <v>170</v>
-      </c>
       <c r="C600" t="s">
         <v>9</v>
       </c>
@@ -8869,9 +8194,6 @@
       <c r="A601">
         <v>100</v>
       </c>
-      <c r="B601" s="1">
-        <v>142</v>
-      </c>
       <c r="C601" t="s">
         <v>9</v>
       </c>
@@ -8880,8 +8202,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>